--- a/Raw Data/SLEEP.xlsx
+++ b/Raw Data/SLEEP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="SLEEP" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SLEEP!$A$1:$H$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SLEEP!$A$1:$H$202</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -876,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,259 +916,259 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43586</v>
+        <v>43570</v>
       </c>
       <c r="B2" s="2">
-        <v>0.31458333333333333</v>
+        <v>0.30763888888888891</v>
       </c>
       <c r="C2" s="2">
-        <v>6.458333333333334E-2</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="D2" s="2">
-        <v>0.25</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.97986111111111107</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="G2" s="2">
-        <v>0.29444444444444445</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="H2" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43587</v>
+        <v>43571</v>
       </c>
       <c r="B3" s="2">
-        <v>0.34583333333333338</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C3" s="2">
-        <v>0.11319444444444444</v>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D3" s="2">
-        <v>0.23263888888888887</v>
+        <v>0.21319444444444444</v>
       </c>
       <c r="E3" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F3" s="2">
-        <v>0.92847222222222214</v>
+        <v>0.90138888888888891</v>
       </c>
       <c r="G3" s="2">
-        <v>0.27569444444444446</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="H3" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43588</v>
+        <v>43572</v>
       </c>
       <c r="B4" s="2">
-        <v>0.37083333333333335</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C4" s="2">
-        <v>0.15347222222222223</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="D4" s="2">
-        <v>0.21736111111111112</v>
+        <v>0.20069444444444443</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0.91874999999999996</v>
+        <v>0.95347222222222217</v>
       </c>
       <c r="G4" s="2">
         <v>0.28958333333333336</v>
       </c>
       <c r="H4" s="3">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43589</v>
+        <v>43573</v>
       </c>
       <c r="B5" s="2">
-        <v>0.3215277777777778</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="C5" s="2">
-        <v>0.15486111111111112</v>
+        <v>0.19236111111111112</v>
       </c>
       <c r="D5" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.20694444444444446</v>
       </c>
       <c r="E5" s="2">
-        <v>1.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>4.1666666666666666E-3</v>
+        <v>0.87916666666666676</v>
       </c>
       <c r="G5" s="2">
-        <v>0.33819444444444446</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="H5" s="3">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43590</v>
+        <v>43574</v>
       </c>
       <c r="B6" s="2">
-        <v>0.35833333333333334</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="C6" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="D6" s="2">
-        <v>0.23124999999999998</v>
+        <v>0.11319444444444444</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>4.5138888888888888E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>0.93472222222222223</v>
+        <v>0.99861111111111101</v>
       </c>
       <c r="G6" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="H6" s="3">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43591</v>
+        <v>43575</v>
       </c>
       <c r="B7" s="2">
-        <v>0.36180555555555555</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="C7" s="2">
-        <v>0.16041666666666668</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="D7" s="2">
-        <v>0.20138888888888887</v>
+        <v>0.12569444444444444</v>
       </c>
       <c r="E7" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.92500000000000004</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="G7" s="2">
-        <v>0.28819444444444448</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H7" s="3">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43592</v>
+        <v>43576</v>
       </c>
       <c r="B8" s="2">
-        <v>0.34375</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="C8" s="2">
-        <v>0.25347222222222221</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="D8" s="2">
-        <v>9.0277777777777776E-2</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.92222222222222228</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G8" s="2">
-        <v>0.26597222222222222</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="H8" s="3">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43593</v>
+        <v>43577</v>
       </c>
       <c r="B9" s="2">
-        <v>0.34236111111111112</v>
+        <v>0.36736111111111108</v>
       </c>
       <c r="C9" s="2">
-        <v>0.12083333333333333</v>
+        <v>0.14722222222222223</v>
       </c>
       <c r="D9" s="2">
-        <v>0.22152777777777777</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="E9" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="F9" s="2">
-        <v>0.9111111111111112</v>
+        <v>0.94861111111111107</v>
       </c>
       <c r="G9" s="2">
-        <v>0.25625000000000003</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="H9" s="3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43594</v>
+        <v>43578</v>
       </c>
       <c r="B10" s="2">
-        <v>0.28750000000000003</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.14097222222222222</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.14652777777777778</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0.98055555555555562</v>
       </c>
       <c r="G10" s="2">
-        <v>0.28958333333333336</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="H10" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43595</v>
+        <v>43579</v>
       </c>
       <c r="B11" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="C11" s="2">
-        <v>0.22291666666666665</v>
+        <v>0.15902777777777777</v>
       </c>
       <c r="D11" s="2">
-        <v>0.13472222222222222</v>
+        <v>0.1673611111111111</v>
       </c>
       <c r="E11" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>1.8749999999999999E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.93333333333333335</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G11" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="H11" s="3">
         <v>88</v>
@@ -1176,51 +1176,51 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43596</v>
+        <v>43580</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2902777777777778</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="C12" s="2">
-        <v>0.11388888888888889</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="D12" s="2">
-        <v>0.1763888888888889</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.3194444444444444E-2</v>
+        <v>0.96180555555555547</v>
       </c>
       <c r="G12" s="2">
-        <v>0.3034722222222222</v>
+        <v>0.28125</v>
       </c>
       <c r="H12" s="3">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43597</v>
+        <v>43581</v>
       </c>
       <c r="B13" s="2">
-        <v>0.39374999999999999</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="C13" s="2">
-        <v>0.17500000000000002</v>
+        <v>9.7916666666666666E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.21875</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F13" s="2">
-        <v>0.9638888888888888</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="G13" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.28194444444444444</v>
       </c>
       <c r="H13" s="3">
         <v>91</v>
@@ -1228,51 +1228,51 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43598</v>
+        <v>43582</v>
       </c>
       <c r="B14" s="2">
-        <v>0.24652777777777779</v>
+        <v>0.3347222222222222</v>
       </c>
       <c r="C14" s="2">
-        <v>0.12152777777777778</v>
+        <v>9.0972222222222218E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.125</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F14" s="2">
-        <v>5.8333333333333327E-2</v>
+        <v>0.9277777777777777</v>
       </c>
       <c r="G14" s="2">
-        <v>0.30486111111111108</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="H14" s="3">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43599</v>
+        <v>43583</v>
       </c>
       <c r="B15" s="2">
-        <v>0.35694444444444445</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C15" s="2">
-        <v>0.21805555555555556</v>
+        <v>0.17152777777777775</v>
       </c>
       <c r="D15" s="2">
-        <v>0.1388888888888889</v>
+        <v>0.19305555555555554</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="F15" s="2">
-        <v>0.93472222222222223</v>
+        <v>0.92569444444444438</v>
       </c>
       <c r="G15" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.30277777777777776</v>
       </c>
       <c r="H15" s="3">
         <v>94</v>
@@ -1280,155 +1280,155 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43600</v>
+        <v>43584</v>
       </c>
       <c r="B16" s="2">
-        <v>0.35972222222222222</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="C16" s="2">
-        <v>0.17361111111111113</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.18611111111111112</v>
+        <v>0.22708333333333333</v>
       </c>
       <c r="E16" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0.92847222222222214</v>
+        <v>0.97083333333333333</v>
       </c>
       <c r="G16" s="2">
-        <v>0.28958333333333336</v>
+        <v>0.26180555555555557</v>
       </c>
       <c r="H16" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43601</v>
+        <v>43585</v>
       </c>
       <c r="B17" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.30624999999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>9.6527777777777768E-2</v>
+        <v>0.10208333333333335</v>
       </c>
       <c r="D17" s="2">
-        <v>0.19444444444444445</v>
+        <v>0.20416666666666669</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>0.96388888888888891</v>
       </c>
       <c r="G17" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.27013888888888887</v>
       </c>
       <c r="H17" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43602</v>
+        <v>43586</v>
       </c>
       <c r="B18" s="2">
-        <v>0.23541666666666669</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="C18" s="2">
-        <v>7.7777777777777779E-2</v>
+        <v>6.458333333333334E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.15763888888888888</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>2.4305555555555556E-2</v>
+        <v>0.97986111111111107</v>
       </c>
       <c r="G18" s="2">
-        <v>0.25972222222222224</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="H18" s="3">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43603</v>
+        <v>43587</v>
       </c>
       <c r="B19" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="C19" s="2">
-        <v>0.16666666666666666</v>
+        <v>0.11319444444444444</v>
       </c>
       <c r="D19" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="E19" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F19" s="2">
-        <v>0.94166666666666665</v>
+        <v>0.92847222222222214</v>
       </c>
       <c r="G19" s="2">
-        <v>0.32361111111111113</v>
+        <v>0.27569444444444446</v>
       </c>
       <c r="H19" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43604</v>
+        <v>43588</v>
       </c>
       <c r="B20" s="2">
-        <v>0.32222222222222224</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1763888888888889</v>
+        <v>0.15347222222222223</v>
       </c>
       <c r="D20" s="2">
-        <v>0.14583333333333334</v>
+        <v>0.21736111111111112</v>
       </c>
       <c r="E20" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0.98472222222222228</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="G20" s="2">
-        <v>0.30833333333333335</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H20" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43605</v>
+        <v>43589</v>
       </c>
       <c r="B21" s="2">
-        <v>0.28402777777777777</v>
+        <v>0.3215277777777778</v>
       </c>
       <c r="C21" s="2">
-        <v>0.13958333333333334</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="D21" s="2">
-        <v>0.14444444444444446</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="G21" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.33819444444444446</v>
       </c>
       <c r="H21" s="3">
         <v>88</v>
@@ -1436,831 +1436,831 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43606</v>
+        <v>43590</v>
       </c>
       <c r="B22" s="2">
-        <v>0.35694444444444445</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="C22" s="2">
-        <v>0.16597222222222222</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="D22" s="2">
-        <v>0.19097222222222221</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="E22" s="2">
-        <v>2.2916666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>0.91041666666666665</v>
+        <v>0.93472222222222223</v>
       </c>
       <c r="G22" s="2">
-        <v>0.2902777777777778</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="H22" s="3">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43607</v>
+        <v>43591</v>
       </c>
       <c r="B23" s="2">
-        <v>0.30555555555555552</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="C23" s="2">
-        <v>5.8333333333333327E-2</v>
+        <v>0.16041666666666668</v>
       </c>
       <c r="D23" s="2">
-        <v>0.24722222222222223</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F23" s="2">
-        <v>0.98541666666666661</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G23" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="H23" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43608</v>
+        <v>43592</v>
       </c>
       <c r="B24" s="2">
-        <v>0.34236111111111112</v>
+        <v>0.34375</v>
       </c>
       <c r="C24" s="2">
-        <v>0.13055555555555556</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="D24" s="2">
-        <v>0.21180555555555555</v>
+        <v>9.0277777777777776E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>1.0416666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0.93611111111111112</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="G24" s="2">
-        <v>0.28888888888888892</v>
+        <v>0.26597222222222222</v>
       </c>
       <c r="H24" s="3">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43609</v>
+        <v>43593</v>
       </c>
       <c r="B25" s="2">
-        <v>0.3430555555555555</v>
+        <v>0.34236111111111112</v>
       </c>
       <c r="C25" s="2">
-        <v>6.5972222222222224E-2</v>
+        <v>0.12083333333333333</v>
       </c>
       <c r="D25" s="2">
-        <v>0.27708333333333335</v>
+        <v>0.22152777777777777</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F25" s="2">
-        <v>0.94791666666666674</v>
+        <v>0.9111111111111112</v>
       </c>
       <c r="G25" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.25625000000000003</v>
       </c>
       <c r="H25" s="3">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43610</v>
+        <v>43594</v>
       </c>
       <c r="B26" s="2">
-        <v>0.31736111111111115</v>
+        <v>0.28750000000000003</v>
       </c>
       <c r="C26" s="2">
-        <v>0.13055555555555556</v>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D26" s="2">
-        <v>0.18680555555555556</v>
+        <v>0.14652777777777778</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0.95486111111111116</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="G26" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H26" s="3">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43611</v>
+        <v>43595</v>
       </c>
       <c r="B27" s="2">
-        <v>0.28263888888888888</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="C27" s="2">
-        <v>7.4305555555555555E-2</v>
+        <v>0.22291666666666665</v>
       </c>
       <c r="D27" s="2">
-        <v>0.20833333333333334</v>
+        <v>0.13472222222222222</v>
       </c>
       <c r="E27" s="2">
-        <v>1.3194444444444444E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F27" s="2">
-        <v>0.95</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G27" s="2">
-        <v>0.24583333333333335</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43612</v>
+        <v>43596</v>
       </c>
       <c r="B28" s="2">
-        <v>0.3354166666666667</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="C28" s="2">
-        <v>0.18055555555555555</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="D28" s="2">
-        <v>0.15486111111111112</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>0.95625000000000004</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.3034722222222222</v>
       </c>
       <c r="H28" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43613</v>
+        <v>43597</v>
       </c>
       <c r="B29" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5972222222222224E-2</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>0.2590277777777778</v>
+        <v>0.21875</v>
       </c>
       <c r="E29" s="2">
-        <v>3.8194444444444441E-2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>0.9145833333333333</v>
+        <v>0.9638888888888888</v>
       </c>
       <c r="G29" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="H29" s="3">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43614</v>
+        <v>43598</v>
       </c>
       <c r="B30" s="2">
-        <v>0.36319444444444443</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="C30" s="2">
-        <v>0.15277777777777776</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="D30" s="2">
-        <v>0.21041666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E30" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.92986111111111103</v>
+        <v>5.8333333333333327E-2</v>
       </c>
       <c r="G30" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.30486111111111108</v>
       </c>
       <c r="H30" s="3">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43615</v>
+        <v>43599</v>
       </c>
       <c r="B31" s="2">
-        <v>0.3298611111111111</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C31" s="2">
-        <v>0.16180555555555556</v>
+        <v>0.21805555555555556</v>
       </c>
       <c r="D31" s="2">
-        <v>0.16805555555555554</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="E31" s="2">
-        <v>5.4166666666666669E-2</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>0.9111111111111112</v>
+        <v>0.93472222222222223</v>
       </c>
       <c r="G31" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H31" s="3">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43616</v>
+        <v>43600</v>
       </c>
       <c r="B32" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C32" s="2">
-        <v>6.805555555555555E-2</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="D32" s="2">
-        <v>0.22291666666666665</v>
+        <v>0.18611111111111112</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F32" s="2">
-        <v>0.99791666666666656</v>
+        <v>0.92847222222222214</v>
       </c>
       <c r="G32" s="2">
-        <v>0.28888888888888892</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H32" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43617</v>
+        <v>43601</v>
       </c>
       <c r="B33" s="2">
-        <v>0.3</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="C33" s="2">
-        <v>0.10416666666666667</v>
+        <v>9.6527777777777768E-2</v>
       </c>
       <c r="D33" s="2">
-        <v>0.19583333333333333</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E33" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>0.99374999999999991</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="G33" s="2">
-        <v>0.29652777777777778</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H33" s="3">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43618</v>
+        <v>43602</v>
       </c>
       <c r="B34" s="2">
-        <v>0.44097222222222227</v>
+        <v>0.23541666666666669</v>
       </c>
       <c r="C34" s="2">
-        <v>0.16388888888888889</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.27708333333333335</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="E34" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>0.90833333333333344</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>0.35069444444444442</v>
+        <v>0.25972222222222224</v>
       </c>
       <c r="H34" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43619</v>
+        <v>43603</v>
       </c>
       <c r="B35" s="2">
-        <v>0.35902777777777778</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C35" s="2">
-        <v>8.6111111111111124E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D35" s="2">
-        <v>0.27291666666666664</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F35" s="2">
-        <v>0.92777777777777781</v>
+        <v>0.94166666666666665</v>
       </c>
       <c r="G35" s="2">
-        <v>0.28680555555555554</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="H35" s="3">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43620</v>
+        <v>43604</v>
       </c>
       <c r="B36" s="2">
-        <v>0.32569444444444445</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C36" s="2">
-        <v>8.2638888888888887E-2</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="D36" s="2">
-        <v>0.24305555555555555</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E36" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F36" s="2">
-        <v>0.9458333333333333</v>
+        <v>0.98472222222222228</v>
       </c>
       <c r="G36" s="2">
-        <v>0.27291666666666664</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="H36" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43621</v>
+        <v>43605</v>
       </c>
       <c r="B37" s="2">
-        <v>0.3576388888888889</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="C37" s="2">
-        <v>0.13402777777777777</v>
+        <v>0.13958333333333334</v>
       </c>
       <c r="D37" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="E37" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0.93611111111111112</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="G37" s="2">
-        <v>0.29583333333333334</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H37" s="3">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43622</v>
+        <v>43606</v>
       </c>
       <c r="B38" s="2">
-        <v>0.32083333333333336</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C38" s="2">
-        <v>9.1666666666666674E-2</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="D38" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>2.2916666666666669E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>0.95347222222222228</v>
+        <v>0.91041666666666665</v>
       </c>
       <c r="G38" s="2">
-        <v>0.27430555555555552</v>
+        <v>0.2902777777777778</v>
       </c>
       <c r="H38" s="3">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43623</v>
+        <v>43607</v>
       </c>
       <c r="B39" s="2">
-        <v>0.32777777777777778</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="C39" s="2">
-        <v>0.11597222222222221</v>
+        <v>5.8333333333333327E-2</v>
       </c>
       <c r="D39" s="2">
-        <v>0.21180555555555555</v>
+        <v>0.24722222222222223</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0.94097222222222232</v>
+        <v>0.98541666666666661</v>
       </c>
       <c r="G39" s="2">
-        <v>0.26874999999999999</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H39" s="3">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43624</v>
+        <v>43608</v>
       </c>
       <c r="B40" s="2">
-        <v>0.34930555555555554</v>
+        <v>0.34236111111111112</v>
       </c>
       <c r="C40" s="2">
-        <v>0.17569444444444446</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="D40" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>6.9444444444444447E-4</v>
+        <v>0.93611111111111112</v>
       </c>
       <c r="G40" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="H40" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43625</v>
+        <v>43609</v>
       </c>
       <c r="B41" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.3430555555555555</v>
       </c>
       <c r="C41" s="2">
-        <v>0.19999999999999998</v>
+        <v>6.5972222222222224E-2</v>
       </c>
       <c r="D41" s="2">
-        <v>0.18055555555555555</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="E41" s="2">
-        <v>4.027777777777778E-2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>0.92291666666666661</v>
+        <v>0.94791666666666674</v>
       </c>
       <c r="G41" s="2">
-        <v>0.34375</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H41" s="3">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43626</v>
+        <v>43610</v>
       </c>
       <c r="B42" s="2">
-        <v>0.31458333333333333</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="C42" s="2">
-        <v>0.12013888888888889</v>
+        <v>0.13055555555555556</v>
       </c>
       <c r="D42" s="2">
-        <v>0.19444444444444445</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0.95763888888888893</v>
+        <v>0.95486111111111116</v>
       </c>
       <c r="G42" s="2">
         <v>0.2722222222222222</v>
       </c>
       <c r="H42" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43627</v>
+        <v>43611</v>
       </c>
       <c r="B43" s="2">
-        <v>0.35486111111111113</v>
+        <v>0.28263888888888888</v>
       </c>
       <c r="C43" s="2">
-        <v>0.16597222222222222</v>
+        <v>7.4305555555555555E-2</v>
       </c>
       <c r="D43" s="2">
-        <v>0.18888888888888888</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="F43" s="2">
-        <v>0.9458333333333333</v>
+        <v>0.95</v>
       </c>
       <c r="G43" s="2">
-        <v>0.30069444444444443</v>
+        <v>0.24583333333333335</v>
       </c>
       <c r="H43" s="3">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43628</v>
+        <v>43612</v>
       </c>
       <c r="B44" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="C44" s="2">
-        <v>0.14097222222222222</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="D44" s="2">
-        <v>0.15416666666666667</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>0.99861111111111112</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="G44" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H44" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43629</v>
+        <v>43613</v>
       </c>
       <c r="B45" s="2">
-        <v>0.32083333333333336</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C45" s="2">
-        <v>2.361111111111111E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
       <c r="D45" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.2590277777777778</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>3.8194444444444441E-2</v>
       </c>
       <c r="F45" s="2">
-        <v>0.96527777777777768</v>
+        <v>0.9145833333333333</v>
       </c>
       <c r="G45" s="2">
-        <v>0.28611111111111115</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="H45" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43630</v>
+        <v>43614</v>
       </c>
       <c r="B46" s="2">
-        <v>0.23750000000000002</v>
+        <v>0.36319444444444443</v>
       </c>
       <c r="C46" s="2">
-        <v>0.1076388888888889</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="D46" s="2">
-        <v>0.12986111111111112</v>
+        <v>0.21041666666666667</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F46" s="2">
-        <v>3.3333333333333333E-2</v>
+        <v>0.92986111111111103</v>
       </c>
       <c r="G46" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H46" s="3">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43631</v>
+        <v>43615</v>
       </c>
       <c r="B47" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="C47" s="2">
-        <v>0.19999999999999998</v>
+        <v>0.16180555555555556</v>
       </c>
       <c r="D47" s="2">
-        <v>0.20555555555555557</v>
+        <v>0.16805555555555554</v>
       </c>
       <c r="E47" s="2">
-        <v>0</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="F47" s="2">
-        <v>0.95902777777777781</v>
+        <v>0.9111111111111112</v>
       </c>
       <c r="G47" s="2">
-        <v>0.36458333333333331</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H47" s="3">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43632</v>
+        <v>43616</v>
       </c>
       <c r="B48" s="2">
-        <v>0.37986111111111115</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="C48" s="2">
-        <v>0.14791666666666667</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="D48" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.22291666666666665</v>
       </c>
       <c r="E48" s="2">
-        <v>9.0277777777777787E-3</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>0.97847222222222219</v>
+        <v>0.99791666666666656</v>
       </c>
       <c r="G48" s="2">
-        <v>0.36736111111111108</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="H48" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43633</v>
+        <v>43617</v>
       </c>
       <c r="B49" s="2">
-        <v>0.31458333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="C49" s="2">
-        <v>9.9999999999999992E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="D49" s="2">
-        <v>0.21458333333333335</v>
+        <v>0.19583333333333333</v>
       </c>
       <c r="E49" s="2">
-        <v>0</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F49" s="2">
-        <v>0.9770833333333333</v>
+        <v>0.99374999999999991</v>
       </c>
       <c r="G49" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.29652777777777778</v>
       </c>
       <c r="H49" s="3">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43634</v>
+        <v>43618</v>
       </c>
       <c r="B50" s="2">
-        <v>0.31527777777777777</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="C50" s="2">
-        <v>0.12222222222222223</v>
+        <v>0.16388888888888889</v>
       </c>
       <c r="D50" s="2">
-        <v>0.19305555555555554</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="E50" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F50" s="2">
-        <v>0.97986111111111107</v>
+        <v>0.90833333333333344</v>
       </c>
       <c r="G50" s="2">
-        <v>0.29652777777777778</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="H50" s="3">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43635</v>
+        <v>43619</v>
       </c>
       <c r="B51" s="2">
-        <v>0.31805555555555554</v>
+        <v>0.35902777777777778</v>
       </c>
       <c r="C51" s="2">
-        <v>0.14930555555555555</v>
+        <v>8.6111111111111124E-2</v>
       </c>
       <c r="D51" s="2">
-        <v>0.16874999999999998</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>0.95277777777777772</v>
+        <v>0.92777777777777781</v>
       </c>
       <c r="G51" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.28680555555555554</v>
       </c>
       <c r="H51" s="3">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43636</v>
+        <v>43620</v>
       </c>
       <c r="B52" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="C52" s="2">
-        <v>0.16597222222222222</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="D52" s="2">
-        <v>0.10625</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F52" s="2">
-        <v>3.2638888888888891E-2</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="G52" s="2">
-        <v>0.30486111111111108</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="H52" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43637</v>
+        <v>43621</v>
       </c>
       <c r="B53" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="C53" s="2">
-        <v>6.6666666666666666E-2</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="D53" s="2">
-        <v>0.28333333333333333</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="E53" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F53" s="2">
-        <v>0.94652777777777786</v>
+        <v>0.93611111111111112</v>
       </c>
       <c r="G53" s="2">
-        <v>0.29791666666666666</v>
+        <v>0.29583333333333334</v>
       </c>
       <c r="H53" s="3">
         <v>91</v>
@@ -2268,415 +2268,415 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43638</v>
+        <v>43622</v>
       </c>
       <c r="B54" s="2">
-        <v>0.3833333333333333</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="C54" s="2">
-        <v>0.15763888888888888</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="D54" s="2">
-        <v>0.22569444444444445</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>0.96458333333333335</v>
+        <v>0.95347222222222228</v>
       </c>
       <c r="G54" s="2">
-        <v>0.34791666666666665</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="H54" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43639</v>
+        <v>43623</v>
       </c>
       <c r="B55" s="2">
-        <v>0.36249999999999999</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C55" s="2">
-        <v>0.1277777777777778</v>
+        <v>0.11597222222222221</v>
       </c>
       <c r="D55" s="2">
-        <v>0.23472222222222219</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E55" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>0.9638888888888888</v>
+        <v>0.94097222222222232</v>
       </c>
       <c r="G55" s="2">
-        <v>0.32777777777777778</v>
+        <v>0.26874999999999999</v>
       </c>
       <c r="H55" s="3">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43640</v>
+        <v>43624</v>
       </c>
       <c r="B56" s="2">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="G56" s="2">
         <v>0.35000000000000003</v>
       </c>
-      <c r="C56" s="2">
-        <v>0.14444444444444446</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.20555555555555557</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.98333333333333339</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="H56" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43641</v>
+        <v>43625</v>
       </c>
       <c r="B57" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.38055555555555554</v>
       </c>
       <c r="C57" s="2">
-        <v>0.14375000000000002</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="D57" s="2">
-        <v>0.12847222222222224</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>4.027777777777778E-2</v>
       </c>
       <c r="F57" s="2">
-        <v>0.99861111111111112</v>
+        <v>0.92291666666666661</v>
       </c>
       <c r="G57" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="H57" s="3">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43642</v>
+        <v>43626</v>
       </c>
       <c r="B58" s="2">
-        <v>0.28958333333333336</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="C58" s="2">
-        <v>0.13819444444444443</v>
+        <v>0.12013888888888889</v>
       </c>
       <c r="D58" s="2">
-        <v>0.15138888888888888</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0.95763888888888893</v>
       </c>
       <c r="G58" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="H58" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43643</v>
+        <v>43627</v>
       </c>
       <c r="B59" s="2">
-        <v>0.3527777777777778</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="C59" s="2">
-        <v>0.15902777777777777</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="D59" s="2">
-        <v>0.19375000000000001</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>0.9326388888888888</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="G59" s="2">
-        <v>0.28541666666666665</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="H59" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43644</v>
+        <v>43628</v>
       </c>
       <c r="B60" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="C60" s="2">
-        <v>0.10208333333333335</v>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D60" s="2">
-        <v>0.18888888888888888</v>
+        <v>0.15416666666666667</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>0.93819444444444455</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="G60" s="2">
-        <v>0.22916666666666666</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="H60" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43645</v>
+        <v>43629</v>
       </c>
       <c r="B61" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="C61" s="2">
-        <v>0.15</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="D61" s="2">
-        <v>0.24583333333333335</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="E61" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2">
-        <v>0.94652777777777786</v>
+        <v>0.96527777777777768</v>
       </c>
       <c r="G61" s="2">
-        <v>0.34375</v>
+        <v>0.28611111111111115</v>
       </c>
       <c r="H61" s="3">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43646</v>
+        <v>43630</v>
       </c>
       <c r="B62" s="2">
-        <v>0.39444444444444443</v>
+        <v>0.23750000000000002</v>
       </c>
       <c r="C62" s="2">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="D62" s="2">
         <v>0.12986111111111112</v>
       </c>
-      <c r="D62" s="2">
-        <v>0.26458333333333334</v>
-      </c>
       <c r="E62" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>0.94652777777777786</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G62" s="2">
-        <v>0.34236111111111112</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H62" s="3">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43647</v>
+        <v>43631</v>
       </c>
       <c r="B63" s="2">
-        <v>0.3354166666666667</v>
+        <v>0.4055555555555555</v>
       </c>
       <c r="C63" s="2">
-        <v>0.18888888888888888</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="D63" s="2">
-        <v>0.14652777777777778</v>
+        <v>0.20555555555555557</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>0.9458333333333333</v>
+        <v>0.95902777777777781</v>
       </c>
       <c r="G63" s="2">
-        <v>0.28125</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="H63" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43648</v>
+        <v>43632</v>
       </c>
       <c r="B64" s="2">
-        <v>0.34513888888888888</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="C64" s="2">
-        <v>0.16874999999999998</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="D64" s="2">
-        <v>0.1763888888888889</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="E64" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="F64" s="2">
-        <v>0.93124999999999991</v>
+        <v>0.97847222222222219</v>
       </c>
       <c r="G64" s="2">
-        <v>0.28472222222222221</v>
+        <v>0.36736111111111108</v>
       </c>
       <c r="H64" s="3">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43649</v>
+        <v>43633</v>
       </c>
       <c r="B65" s="2">
-        <v>0.33888888888888885</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="C65" s="2">
-        <v>0.10694444444444444</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="D65" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.21458333333333335</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>0.94305555555555554</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="G65" s="2">
-        <v>0.28194444444444444</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H65" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43650</v>
+        <v>43634</v>
       </c>
       <c r="B66" s="2">
-        <v>0.3298611111111111</v>
+        <v>0.31527777777777777</v>
       </c>
       <c r="C66" s="2">
-        <v>8.4027777777777771E-2</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="D66" s="2">
-        <v>0.24583333333333335</v>
+        <v>0.19305555555555554</v>
       </c>
       <c r="E66" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F66" s="2">
-        <v>0.94097222222222232</v>
+        <v>0.97986111111111107</v>
       </c>
       <c r="G66" s="2">
-        <v>0.27083333333333331</v>
+        <v>0.29652777777777778</v>
       </c>
       <c r="H66" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43651</v>
+        <v>43635</v>
       </c>
       <c r="B67" s="2">
-        <v>0.35486111111111113</v>
+        <v>0.31805555555555554</v>
       </c>
       <c r="C67" s="2">
-        <v>0.16458333333333333</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="D67" s="2">
-        <v>0.19027777777777777</v>
+        <v>0.16874999999999998</v>
       </c>
       <c r="E67" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>0.92500000000000004</v>
+        <v>0.95277777777777772</v>
       </c>
       <c r="G67" s="2">
-        <v>0.28819444444444448</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H67" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43652</v>
+        <v>43636</v>
       </c>
       <c r="B68" s="2">
-        <v>0.38263888888888892</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="C68" s="2">
-        <v>0.17708333333333334</v>
+        <v>0.16597222222222222</v>
       </c>
       <c r="D68" s="2">
-        <v>0.20555555555555557</v>
+        <v>0.10625</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>0.9458333333333333</v>
+        <v>3.2638888888888891E-2</v>
       </c>
       <c r="G68" s="2">
-        <v>0.32847222222222222</v>
+        <v>0.30486111111111108</v>
       </c>
       <c r="H68" s="3">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43653</v>
+        <v>43637</v>
       </c>
       <c r="B69" s="2">
-        <v>0.34027777777777773</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C69" s="2">
-        <v>0.18680555555555556</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D69" s="2">
-        <v>0.15347222222222223</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="E69" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F69" s="2">
-        <v>0.97083333333333344</v>
+        <v>0.94652777777777786</v>
       </c>
       <c r="G69" s="2">
-        <v>0.3125</v>
+        <v>0.29791666666666666</v>
       </c>
       <c r="H69" s="3">
         <v>91</v>
@@ -2684,51 +2684,51 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43654</v>
+        <v>43638</v>
       </c>
       <c r="B70" s="2">
-        <v>0.32013888888888892</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="C70" s="2">
-        <v>0.125</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="D70" s="2">
-        <v>0.19513888888888889</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="E70" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>0.97986111111111107</v>
+        <v>0.96458333333333335</v>
       </c>
       <c r="G70" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="H70" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43655</v>
+        <v>43639</v>
       </c>
       <c r="B71" s="2">
-        <v>0.28888888888888892</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="C71" s="2">
-        <v>5.6944444444444443E-2</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="D71" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.23472222222222219</v>
       </c>
       <c r="E71" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F71" s="2">
-        <v>0.97152777777777777</v>
+        <v>0.9638888888888888</v>
       </c>
       <c r="G71" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="H71" s="3">
         <v>91</v>
@@ -2736,623 +2736,623 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43656</v>
+        <v>43640</v>
       </c>
       <c r="B72" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C72" s="2">
-        <v>0.10625</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="D72" s="2">
-        <v>0.28125</v>
+        <v>0.20555555555555557</v>
       </c>
       <c r="E72" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>0.95069444444444451</v>
+        <v>0.98333333333333339</v>
       </c>
       <c r="G72" s="2">
-        <v>0.33958333333333335</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H72" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43657</v>
+        <v>43641</v>
       </c>
       <c r="B73" s="2">
-        <v>0.35972222222222222</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="C73" s="2">
-        <v>0.18680555555555556</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="D73" s="2">
-        <v>0.17291666666666669</v>
+        <v>0.12847222222222224</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>0.94652777777777786</v>
+        <v>0.99861111111111112</v>
       </c>
       <c r="G73" s="2">
-        <v>0.30624999999999997</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H73" s="3">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43658</v>
+        <v>43642</v>
       </c>
       <c r="B74" s="2">
-        <v>0.34097222222222223</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="C74" s="2">
-        <v>0.12222222222222223</v>
+        <v>0.13819444444444443</v>
       </c>
       <c r="D74" s="2">
-        <v>0.21875</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>0.95277777777777772</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="G74" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H74" s="3">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43659</v>
+        <v>43643</v>
       </c>
       <c r="B75" s="2">
-        <v>0.34930555555555554</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="C75" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.15902777777777777</v>
       </c>
       <c r="D75" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>0.92777777777777781</v>
+        <v>0.9326388888888888</v>
       </c>
       <c r="G75" s="2">
-        <v>0.27708333333333335</v>
+        <v>0.28541666666666665</v>
       </c>
       <c r="H75" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43660</v>
+        <v>43644</v>
       </c>
       <c r="B76" s="2">
-        <v>0.40347222222222223</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="C76" s="2">
-        <v>0.19097222222222221</v>
+        <v>0.10208333333333335</v>
       </c>
       <c r="D76" s="2">
-        <v>0.21249999999999999</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
       </c>
       <c r="F76" s="2">
-        <v>0.94652777777777786</v>
+        <v>0.93819444444444455</v>
       </c>
       <c r="G76" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="H76" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43661</v>
+        <v>43645</v>
       </c>
       <c r="B77" s="2">
-        <v>0.32361111111111113</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C77" s="2">
-        <v>0.11875000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D77" s="2">
-        <v>0.20486111111111113</v>
+        <v>0.24583333333333335</v>
       </c>
       <c r="E77" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F77" s="2">
-        <v>0.95625000000000004</v>
+        <v>0.94652777777777786</v>
       </c>
       <c r="G77" s="2">
-        <v>0.28958333333333336</v>
+        <v>0.34375</v>
       </c>
       <c r="H77" s="3">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43662</v>
+        <v>43646</v>
       </c>
       <c r="B78" s="2">
-        <v>0.32777777777777778</v>
+        <v>0.39444444444444443</v>
       </c>
       <c r="C78" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.12986111111111112</v>
       </c>
       <c r="D78" s="2">
-        <v>0.10277777777777779</v>
+        <v>0.26458333333333334</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F78" s="2">
-        <v>0.95</v>
+        <v>0.94652777777777786</v>
       </c>
       <c r="G78" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.34236111111111112</v>
       </c>
       <c r="H78" s="3">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43663</v>
+        <v>43647</v>
       </c>
       <c r="B79" s="2">
-        <v>0.35416666666666669</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="C79" s="2">
-        <v>0.18263888888888891</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="D79" s="2">
-        <v>0.17152777777777775</v>
+        <v>0.14652777777777778</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>0.95</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="G79" s="2">
-        <v>0.30416666666666664</v>
+        <v>0.28125</v>
       </c>
       <c r="H79" s="3">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43664</v>
+        <v>43648</v>
       </c>
       <c r="B80" s="2">
-        <v>0.34791666666666665</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="C80" s="2">
-        <v>0.11666666666666665</v>
+        <v>0.16874999999999998</v>
       </c>
       <c r="D80" s="2">
-        <v>0.23124999999999998</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="E80" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F80" s="2">
-        <v>0.94861111111111107</v>
+        <v>0.93124999999999991</v>
       </c>
       <c r="G80" s="2">
-        <v>0.29791666666666666</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="H80" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43665</v>
+        <v>43649</v>
       </c>
       <c r="B81" s="2">
-        <v>0.35555555555555557</v>
+        <v>0.33888888888888885</v>
       </c>
       <c r="C81" s="2">
-        <v>0.14027777777777778</v>
+        <v>0.10694444444444444</v>
       </c>
       <c r="D81" s="2">
-        <v>0.21527777777777779</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <v>0.93958333333333344</v>
+        <v>0.94305555555555554</v>
       </c>
       <c r="G81" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.28194444444444444</v>
       </c>
       <c r="H81" s="3">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43666</v>
+        <v>43650</v>
       </c>
       <c r="B82" s="2">
-        <v>0.38958333333333334</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="C82" s="2">
-        <v>0.17013888888888887</v>
+        <v>8.4027777777777771E-2</v>
       </c>
       <c r="D82" s="2">
-        <v>0.21944444444444444</v>
+        <v>0.24583333333333335</v>
       </c>
       <c r="E82" s="2">
-        <v>1.2499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>0.92638888888888893</v>
+        <v>0.94097222222222232</v>
       </c>
       <c r="G82" s="2">
-        <v>0.32847222222222222</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H82" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43667</v>
+        <v>43651</v>
       </c>
       <c r="B83" s="2">
-        <v>0.40486111111111112</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="C83" s="2">
-        <v>0.18124999999999999</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="D83" s="2">
-        <v>0.22361111111111109</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="E83" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F83" s="2">
-        <v>0.95208333333333339</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G83" s="2">
-        <v>0.36249999999999999</v>
+        <v>0.28819444444444448</v>
       </c>
       <c r="H83" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43668</v>
+        <v>43652</v>
       </c>
       <c r="B84" s="2">
-        <v>0.2590277777777778</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C84" s="2">
-        <v>8.2638888888888887E-2</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="D84" s="2">
-        <v>0.1763888888888889</v>
+        <v>0.20555555555555557</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>4.3055555555555562E-2</v>
+        <v>0.9458333333333333</v>
       </c>
       <c r="G84" s="2">
-        <v>0.30208333333333331</v>
+        <v>0.32847222222222222</v>
       </c>
       <c r="H84" s="3">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43669</v>
+        <v>43653</v>
       </c>
       <c r="B85" s="2">
-        <v>0.34375</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="C85" s="2">
-        <v>0.12291666666666667</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="D85" s="2">
-        <v>0.22083333333333333</v>
+        <v>0.15347222222222223</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F85" s="2">
-        <v>0.9291666666666667</v>
+        <v>0.97083333333333344</v>
       </c>
       <c r="G85" s="2">
-        <v>0.27291666666666664</v>
+        <v>0.3125</v>
       </c>
       <c r="H85" s="3">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43670</v>
+        <v>43654</v>
       </c>
       <c r="B86" s="2">
-        <v>0.3666666666666667</v>
+        <v>0.32013888888888892</v>
       </c>
       <c r="C86" s="2">
-        <v>0.13541666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="D86" s="2">
-        <v>0.23124999999999998</v>
+        <v>0.19513888888888889</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F86" s="2">
-        <v>0.93055555555555558</v>
+        <v>0.97986111111111107</v>
       </c>
       <c r="G86" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="H86" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43671</v>
+        <v>43655</v>
       </c>
       <c r="B87" s="2">
-        <v>0.33888888888888885</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="C87" s="2">
-        <v>0.11319444444444444</v>
+        <v>5.6944444444444443E-2</v>
       </c>
       <c r="D87" s="2">
-        <v>0.22569444444444445</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <v>0.9423611111111112</v>
+        <v>0.97152777777777777</v>
       </c>
       <c r="G87" s="2">
-        <v>0.28125</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="H87" s="3">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43672</v>
+        <v>43656</v>
       </c>
       <c r="B88" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>0.2076388888888889</v>
+        <v>0.10625</v>
       </c>
       <c r="D88" s="2">
-        <v>9.375E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="E88" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F88" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0.95069444444444451</v>
       </c>
       <c r="G88" s="2">
-        <v>0.30416666666666664</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="H88" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43673</v>
+        <v>43657</v>
       </c>
       <c r="B89" s="2">
-        <v>0.42430555555555555</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C89" s="2">
-        <v>0.12916666666666668</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="D89" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.17291666666666669</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
       </c>
       <c r="F89" s="2">
-        <v>0.93819444444444455</v>
+        <v>0.94652777777777786</v>
       </c>
       <c r="G89" s="2">
-        <v>0.36249999999999999</v>
+        <v>0.30624999999999997</v>
       </c>
       <c r="H89" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43674</v>
+        <v>43658</v>
       </c>
       <c r="B90" s="2">
-        <v>0.33402777777777781</v>
+        <v>0.34097222222222223</v>
       </c>
       <c r="C90" s="2">
-        <v>0.15277777777777776</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="D90" s="2">
-        <v>0.18124999999999999</v>
+        <v>0.21875</v>
       </c>
       <c r="E90" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="F90" s="2">
-        <v>0.92986111111111103</v>
+        <v>0.95277777777777772</v>
       </c>
       <c r="G90" s="2">
-        <v>0.26597222222222222</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="H90" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43675</v>
+        <v>43659</v>
       </c>
       <c r="B91" s="2">
-        <v>0.30972222222222223</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="C91" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="D91" s="2">
-        <v>9.5833333333333326E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
       </c>
       <c r="F91" s="2">
-        <v>0.98888888888888893</v>
+        <v>0.92777777777777781</v>
       </c>
       <c r="G91" s="2">
-        <v>0.2986111111111111</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="H91" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43676</v>
+        <v>43660</v>
       </c>
       <c r="B92" s="2">
-        <v>0.35972222222222222</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="C92" s="2">
-        <v>0.17916666666666667</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="D92" s="2">
-        <v>0.18055555555555555</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>0.94097222222222232</v>
+        <v>0.94652777777777786</v>
       </c>
       <c r="G92" s="2">
-        <v>0.30069444444444443</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H92" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43677</v>
+        <v>43661</v>
       </c>
       <c r="B93" s="2">
-        <v>0.27986111111111112</v>
+        <v>0.32361111111111113</v>
       </c>
       <c r="C93" s="2">
-        <v>0.13749999999999998</v>
+        <v>0.11875000000000001</v>
       </c>
       <c r="D93" s="2">
-        <v>0.1423611111111111</v>
+        <v>0.20486111111111113</v>
       </c>
       <c r="E93" s="2">
-        <v>0</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="F93" s="2">
-        <v>0.99652777777777768</v>
+        <v>0.95625000000000004</v>
       </c>
       <c r="G93" s="2">
-        <v>0.27638888888888885</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H93" s="3">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43678</v>
+        <v>43662</v>
       </c>
       <c r="B94" s="2">
-        <v>0.36388888888888887</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C94" s="2">
-        <v>0.14444444444444446</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D94" s="2">
-        <v>0.21944444444444444</v>
+        <v>0.10277777777777779</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
       </c>
       <c r="F94" s="2">
-        <v>0.92013888888888884</v>
+        <v>0.95</v>
       </c>
       <c r="G94" s="2">
-        <v>0.28402777777777777</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="H94" s="3">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43679</v>
+        <v>43663</v>
       </c>
       <c r="B95" s="2">
-        <v>0.37083333333333335</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C95" s="2">
-        <v>0.16388888888888889</v>
+        <v>0.18263888888888891</v>
       </c>
       <c r="D95" s="2">
-        <v>0.20694444444444446</v>
+        <v>0.17152777777777775</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
       </c>
       <c r="F95" s="2">
-        <v>0.92222222222222228</v>
+        <v>0.95</v>
       </c>
       <c r="G95" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="H95" s="3">
         <v>95</v>
@@ -3360,363 +3360,363 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43680</v>
+        <v>43664</v>
       </c>
       <c r="B96" s="2">
-        <v>0.33888888888888885</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="C96" s="2">
-        <v>9.1666666666666674E-2</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="D96" s="2">
-        <v>0.24722222222222223</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="E96" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F96" s="2">
-        <v>0.97430555555555554</v>
+        <v>0.94861111111111107</v>
       </c>
       <c r="G96" s="2">
-        <v>0.31458333333333333</v>
+        <v>0.29791666666666666</v>
       </c>
       <c r="H96" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43681</v>
+        <v>43665</v>
       </c>
       <c r="B97" s="2">
-        <v>0.40208333333333335</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C97" s="2">
-        <v>0.16041666666666668</v>
+        <v>0.14027777777777778</v>
       </c>
       <c r="D97" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E97" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="F97" s="2">
-        <v>0.91597222222222219</v>
+        <v>0.93958333333333344</v>
       </c>
       <c r="G97" s="2">
-        <v>0.32013888888888892</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H97" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43682</v>
+        <v>43666</v>
       </c>
       <c r="B98" s="2">
-        <v>0.35000000000000003</v>
+        <v>0.38958333333333334</v>
       </c>
       <c r="C98" s="2">
-        <v>0.15694444444444444</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="D98" s="2">
-        <v>0.19305555555555554</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="E98" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="F98" s="2">
-        <v>0.93194444444444446</v>
+        <v>0.92638888888888893</v>
       </c>
       <c r="G98" s="2">
-        <v>0.28333333333333333</v>
+        <v>0.32847222222222222</v>
       </c>
       <c r="H98" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43683</v>
+        <v>43667</v>
       </c>
       <c r="B99" s="2">
-        <v>0.34375</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="C99" s="2">
-        <v>0.14305555555555557</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="D99" s="2">
-        <v>0.20069444444444443</v>
+        <v>0.22361111111111109</v>
       </c>
       <c r="E99" s="2">
-        <v>0</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="F99" s="2">
-        <v>0.93055555555555558</v>
+        <v>0.95208333333333339</v>
       </c>
       <c r="G99" s="2">
-        <v>0.27430555555555552</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="H99" s="3">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43684</v>
+        <v>43668</v>
       </c>
       <c r="B100" s="2">
-        <v>0.36180555555555555</v>
+        <v>0.2590277777777778</v>
       </c>
       <c r="C100" s="2">
-        <v>0.15833333333333333</v>
+        <v>8.2638888888888887E-2</v>
       </c>
       <c r="D100" s="2">
-        <v>0.20347222222222219</v>
+        <v>0.1763888888888889</v>
       </c>
       <c r="E100" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F100" s="2">
-        <v>0.91874999999999996</v>
+        <v>4.3055555555555562E-2</v>
       </c>
       <c r="G100" s="2">
-        <v>0.28194444444444444</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H100" s="3">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43685</v>
+        <v>43669</v>
       </c>
       <c r="B101" s="2">
-        <v>0.31041666666666667</v>
+        <v>0.34375</v>
       </c>
       <c r="C101" s="2">
-        <v>0.14583333333333334</v>
+        <v>0.12291666666666667</v>
       </c>
       <c r="D101" s="2">
-        <v>0.16458333333333333</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
       </c>
       <c r="F101" s="2">
-        <v>0.97638888888888897</v>
+        <v>0.9291666666666667</v>
       </c>
       <c r="G101" s="2">
-        <v>0.28680555555555554</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="H101" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43686</v>
+        <v>43670</v>
       </c>
       <c r="B102" s="2">
-        <v>0.29791666666666666</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C102" s="2">
-        <v>0.14722222222222223</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="D102" s="2">
-        <v>0.15069444444444444</v>
+        <v>0.23124999999999998</v>
       </c>
       <c r="E102" s="2">
-        <v>9.0277777777777787E-3</v>
+        <v>0</v>
       </c>
       <c r="F102" s="2">
-        <v>0.9951388888888888</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="G102" s="2">
-        <v>0.30208333333333331</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H102" s="3">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43687</v>
+        <v>43671</v>
       </c>
       <c r="B103" s="2">
-        <v>0.39652777777777781</v>
+        <v>0.33888888888888885</v>
       </c>
       <c r="C103" s="2">
-        <v>0.19027777777777777</v>
+        <v>0.11319444444444444</v>
       </c>
       <c r="D103" s="2">
-        <v>0.20625000000000002</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
       </c>
       <c r="F103" s="2">
-        <v>0.97430555555555554</v>
+        <v>0.9423611111111112</v>
       </c>
       <c r="G103" s="2">
-        <v>0.37083333333333335</v>
+        <v>0.28125</v>
       </c>
       <c r="H103" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43688</v>
+        <v>43672</v>
       </c>
       <c r="B104" s="2">
-        <v>0.30277777777777776</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="C104" s="2">
-        <v>0.10902777777777778</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="D104" s="2">
-        <v>0.19375000000000001</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E104" s="2">
-        <v>9.7222222222222224E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F104" s="2">
-        <v>0.96736111111111112</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="G104" s="2">
-        <v>0.27986111111111112</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="H104" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43689</v>
+        <v>43673</v>
       </c>
       <c r="B105" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.42430555555555555</v>
       </c>
       <c r="C105" s="2">
-        <v>0.11319444444444444</v>
+        <v>0.12916666666666668</v>
       </c>
       <c r="D105" s="2">
-        <v>0.17777777777777778</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
       </c>
       <c r="F105" s="2">
-        <v>4.1666666666666664E-2</v>
+        <v>0.93819444444444455</v>
       </c>
       <c r="G105" s="2">
-        <v>0.33263888888888887</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="H105" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43690</v>
+        <v>43674</v>
       </c>
       <c r="B106" s="2">
-        <v>0.31527777777777777</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="C106" s="2">
-        <v>0.1423611111111111</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="D106" s="2">
-        <v>0.17291666666666669</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="E106" s="2">
-        <v>0</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F106" s="2">
-        <v>0.97986111111111107</v>
+        <v>0.92986111111111103</v>
       </c>
       <c r="G106" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.26597222222222222</v>
       </c>
       <c r="H106" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43691</v>
+        <v>43675</v>
       </c>
       <c r="B107" s="2">
-        <v>0.34930555555555554</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="C107" s="2">
-        <v>0.18194444444444444</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D107" s="2">
-        <v>0.1673611111111111</v>
+        <v>9.5833333333333326E-2</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
       </c>
       <c r="F107" s="2">
-        <v>0.93194444444444446</v>
+        <v>0.98888888888888893</v>
       </c>
       <c r="G107" s="2">
-        <v>0.28125</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H107" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43692</v>
+        <v>43676</v>
       </c>
       <c r="B108" s="2">
-        <v>0.36180555555555555</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="C108" s="2">
-        <v>0.14375000000000002</v>
+        <v>0.17916666666666667</v>
       </c>
       <c r="D108" s="2">
-        <v>0.21805555555555556</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
       </c>
       <c r="F108" s="2">
-        <v>0.93194444444444446</v>
+        <v>0.94097222222222232</v>
       </c>
       <c r="G108" s="2">
-        <v>0.29375000000000001</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="H108" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43693</v>
+        <v>43677</v>
       </c>
       <c r="B109" s="2">
-        <v>0.3923611111111111</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="C109" s="2">
-        <v>0.15833333333333333</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="D109" s="2">
-        <v>0.23402777777777781</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="E109" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F109" s="2">
-        <v>0.92291666666666661</v>
+        <v>0.99652777777777768</v>
       </c>
       <c r="G109" s="2">
-        <v>0.31666666666666665</v>
+        <v>0.27638888888888885</v>
       </c>
       <c r="H109" s="3">
         <v>90</v>
@@ -3724,649 +3724,649 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43694</v>
+        <v>43678</v>
       </c>
       <c r="B110" s="2">
-        <v>0.3430555555555555</v>
+        <v>0.36388888888888887</v>
       </c>
       <c r="C110" s="2">
-        <v>0.17500000000000002</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="D110" s="2">
-        <v>0.16805555555555554</v>
+        <v>0.21944444444444444</v>
       </c>
       <c r="E110" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="F110" s="2">
-        <v>0.95763888888888893</v>
+        <v>0.92013888888888884</v>
       </c>
       <c r="G110" s="2">
-        <v>0.30694444444444441</v>
+        <v>0.28402777777777777</v>
       </c>
       <c r="H110" s="3">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43695</v>
+        <v>43679</v>
       </c>
       <c r="B111" s="2">
-        <v>0.33611111111111108</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="C111" s="2">
-        <v>0.15763888888888888</v>
+        <v>0.16388888888888889</v>
       </c>
       <c r="D111" s="2">
-        <v>0.17847222222222223</v>
+        <v>0.20694444444444446</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
       </c>
       <c r="F111" s="2">
-        <v>0.9736111111111112</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="G111" s="2">
-        <v>0.30972222222222223</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="H111" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43696</v>
+        <v>43680</v>
       </c>
       <c r="B112" s="2">
-        <v>0.375</v>
+        <v>0.33888888888888885</v>
       </c>
       <c r="C112" s="2">
-        <v>0.24166666666666667</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="D112" s="2">
-        <v>0.13333333333333333</v>
+        <v>0.24722222222222223</v>
       </c>
       <c r="E112" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F112" s="2">
-        <v>0.92638888888888893</v>
+        <v>0.97430555555555554</v>
       </c>
       <c r="G112" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.31458333333333333</v>
       </c>
       <c r="H112" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43697</v>
+        <v>43681</v>
       </c>
       <c r="B113" s="2">
-        <v>0.2388888888888889</v>
+        <v>0.40208333333333335</v>
       </c>
       <c r="C113" s="2">
-        <v>7.7777777777777779E-2</v>
+        <v>0.16041666666666668</v>
       </c>
       <c r="D113" s="2">
-        <v>0.16111111111111112</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="E113" s="2">
-        <v>0</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F113" s="2">
-        <v>6.3194444444444442E-2</v>
+        <v>0.91597222222222219</v>
       </c>
       <c r="G113" s="2">
-        <v>0.30208333333333331</v>
+        <v>0.32013888888888892</v>
       </c>
       <c r="H113" s="3">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43698</v>
+        <v>43682</v>
       </c>
       <c r="B114" s="2">
-        <v>0.3923611111111111</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="C114" s="2">
-        <v>0.24791666666666667</v>
+        <v>0.15694444444444444</v>
       </c>
       <c r="D114" s="2">
-        <v>0.14444444444444446</v>
+        <v>0.19305555555555554</v>
       </c>
       <c r="E114" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F114" s="2">
-        <v>0.90486111111111112</v>
+        <v>0.93194444444444446</v>
       </c>
       <c r="G114" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="H114" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43699</v>
+        <v>43683</v>
       </c>
       <c r="B115" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.34375</v>
       </c>
       <c r="C115" s="2">
-        <v>0.17916666666666667</v>
+        <v>0.14305555555555557</v>
       </c>
       <c r="D115" s="2">
-        <v>0.23055555555555554</v>
+        <v>0.20069444444444443</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
       </c>
       <c r="F115" s="2">
-        <v>0.88541666666666674</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="G115" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="H115" s="3">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43700</v>
+        <v>43684</v>
       </c>
       <c r="B116" s="2">
-        <v>0.35069444444444442</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="C116" s="2">
-        <v>0.15902777777777777</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="D116" s="2">
-        <v>0.19166666666666665</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="E116" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F116" s="2">
-        <v>0.96458333333333335</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="G116" s="2">
-        <v>0.31666666666666665</v>
+        <v>0.28194444444444444</v>
       </c>
       <c r="H116" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43701</v>
+        <v>43685</v>
       </c>
       <c r="B117" s="2">
-        <v>0.38472222222222219</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="C117" s="2">
-        <v>0.20069444444444443</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D117" s="2">
-        <v>0.18402777777777779</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="E117" s="2">
-        <v>7.6388888888888886E-3</v>
+        <v>0</v>
       </c>
       <c r="F117" s="2">
-        <v>0.91180555555555554</v>
+        <v>0.97638888888888897</v>
       </c>
       <c r="G117" s="2">
-        <v>0.30416666666666664</v>
+        <v>0.28680555555555554</v>
       </c>
       <c r="H117" s="3">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43702</v>
+        <v>43686</v>
       </c>
       <c r="B118" s="2">
-        <v>0.38263888888888892</v>
+        <v>0.29791666666666666</v>
       </c>
       <c r="C118" s="2">
-        <v>0.11875000000000001</v>
+        <v>0.14722222222222223</v>
       </c>
       <c r="D118" s="2">
-        <v>0.2638888888888889</v>
+        <v>0.15069444444444444</v>
       </c>
       <c r="E118" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="F118" s="2">
-        <v>0.91180555555555554</v>
+        <v>0.9951388888888888</v>
       </c>
       <c r="G118" s="2">
-        <v>0.29583333333333334</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H118" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43703</v>
+        <v>43687</v>
       </c>
       <c r="B119" s="2">
-        <v>0.27847222222222223</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="C119" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.19027777777777777</v>
       </c>
       <c r="D119" s="2">
-        <v>0.15138888888888888</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
       </c>
       <c r="F119" s="2">
-        <v>2.4305555555555556E-2</v>
+        <v>0.97430555555555554</v>
       </c>
       <c r="G119" s="2">
-        <v>0.30277777777777776</v>
+        <v>0.37083333333333335</v>
       </c>
       <c r="H119" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43704</v>
+        <v>43688</v>
       </c>
       <c r="B120" s="2">
-        <v>0.33958333333333335</v>
+        <v>0.30277777777777776</v>
       </c>
       <c r="C120" s="2">
-        <v>0.11944444444444445</v>
+        <v>0.10902777777777778</v>
       </c>
       <c r="D120" s="2">
-        <v>0.22013888888888888</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="E120" s="2">
-        <v>1.0416666666666666E-2</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="F120" s="2">
-        <v>0.92430555555555549</v>
+        <v>0.96736111111111112</v>
       </c>
       <c r="G120" s="2">
-        <v>0.27430555555555552</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="H120" s="3">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43705</v>
+        <v>43689</v>
       </c>
       <c r="B121" s="2">
-        <v>0.3354166666666667</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="C121" s="2">
-        <v>0.11944444444444445</v>
+        <v>0.11319444444444444</v>
       </c>
       <c r="D121" s="2">
-        <v>0.21597222222222223</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="E121" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F121" s="2">
-        <v>0.96527777777777768</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G121" s="2">
-        <v>0.30208333333333331</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="H121" s="3">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43706</v>
+        <v>43690</v>
       </c>
       <c r="B122" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.31527777777777777</v>
       </c>
       <c r="C122" s="2">
-        <v>0.15833333333333333</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="D122" s="2">
-        <v>0.18888888888888888</v>
+        <v>0.17291666666666669</v>
       </c>
       <c r="E122" s="2">
-        <v>5.5555555555555558E-3</v>
+        <v>0</v>
       </c>
       <c r="F122" s="2">
-        <v>0.94791666666666674</v>
+        <v>0.97986111111111107</v>
       </c>
       <c r="G122" s="2">
-        <v>0.30069444444444443</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H122" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43707</v>
+        <v>43691</v>
       </c>
       <c r="B123" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.34930555555555554</v>
       </c>
       <c r="C123" s="2">
-        <v>0.12916666666666668</v>
+        <v>0.18194444444444444</v>
       </c>
       <c r="D123" s="2">
-        <v>0.23194444444444443</v>
+        <v>0.1673611111111111</v>
       </c>
       <c r="E123" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0</v>
       </c>
       <c r="F123" s="2">
-        <v>0.92291666666666661</v>
+        <v>0.93194444444444446</v>
       </c>
       <c r="G123" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.28125</v>
       </c>
       <c r="H123" s="3">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43708</v>
+        <v>43692</v>
       </c>
       <c r="B124" s="2">
-        <v>0.43124999999999997</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="C124" s="2">
-        <v>0.24305555555555555</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="D124" s="2">
-        <v>0.18819444444444444</v>
+        <v>0.21805555555555556</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
       </c>
       <c r="F124" s="2">
-        <v>0.91736111111111107</v>
+        <v>0.93194444444444446</v>
       </c>
       <c r="G124" s="2">
-        <v>0.34861111111111115</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="H124" s="3">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43709</v>
+        <v>43693</v>
       </c>
       <c r="B125" s="2">
-        <v>0.36041666666666666</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C125" s="2">
-        <v>0.16319444444444445</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="D125" s="2">
-        <v>0.19722222222222222</v>
+        <v>0.23402777777777781</v>
       </c>
       <c r="E125" s="2">
-        <v>7.6388888888888886E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F125" s="2">
-        <v>0.93333333333333335</v>
+        <v>0.92291666666666661</v>
       </c>
       <c r="G125" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="H125" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43710</v>
+        <v>43694</v>
       </c>
       <c r="B126" s="2">
-        <v>0.19722222222222222</v>
+        <v>0.3430555555555555</v>
       </c>
       <c r="C126" s="2">
-        <v>0.19722222222222222</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="D126" s="2">
-        <v>0.17291666666666669</v>
+        <v>0.16805555555555554</v>
       </c>
       <c r="E126" s="2">
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="F126" s="2">
-        <v>0.94027777777777777</v>
+        <v>0.95763888888888893</v>
       </c>
       <c r="G126" s="2">
-        <v>0.31666666666666665</v>
+        <v>0.30694444444444441</v>
       </c>
       <c r="H126" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43711</v>
+        <v>43695</v>
       </c>
       <c r="B127" s="2">
-        <v>0.38263888888888892</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="C127" s="2">
-        <v>0.1277777777777778</v>
+        <v>0.15763888888888888</v>
       </c>
       <c r="D127" s="2">
-        <v>0.25486111111111109</v>
+        <v>0.17847222222222223</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
       </c>
       <c r="F127" s="2">
-        <v>0.92291666666666661</v>
+        <v>0.9736111111111112</v>
       </c>
       <c r="G127" s="2">
-        <v>0.30555555555555552</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="H127" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43712</v>
+        <v>43696</v>
       </c>
       <c r="B128" s="2">
-        <v>0.32083333333333336</v>
+        <v>0.375</v>
       </c>
       <c r="C128" s="2">
-        <v>0.10486111111111111</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="D128" s="2">
-        <v>0.21597222222222223</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
       </c>
       <c r="F128" s="2">
-        <v>0.98055555555555562</v>
+        <v>0.92638888888888893</v>
       </c>
       <c r="G128" s="2">
         <v>0.30138888888888887</v>
       </c>
       <c r="H128" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43713</v>
+        <v>43697</v>
       </c>
       <c r="B129" s="2">
-        <v>0.38611111111111113</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="C129" s="2">
-        <v>0.17430555555555557</v>
+        <v>7.7777777777777779E-2</v>
       </c>
       <c r="D129" s="2">
-        <v>0.21180555555555555</v>
+        <v>0.16111111111111112</v>
       </c>
       <c r="E129" s="2">
-        <v>6.2499999999999995E-3</v>
+        <v>0</v>
       </c>
       <c r="F129" s="2">
-        <v>0.89652777777777781</v>
+        <v>6.3194444444444442E-2</v>
       </c>
       <c r="G129" s="2">
-        <v>0.28888888888888892</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H129" s="3">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43714</v>
+        <v>43698</v>
       </c>
       <c r="B130" s="2">
-        <v>0.3659722222222222</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="C130" s="2">
-        <v>0.19444444444444445</v>
+        <v>0.24791666666666667</v>
       </c>
       <c r="D130" s="2">
-        <v>0.17152777777777775</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="E130" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="F130" s="2">
-        <v>0.89861111111111103</v>
+        <v>0.90486111111111112</v>
       </c>
       <c r="G130" s="2">
-        <v>0.26805555555555555</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H130" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43715</v>
+        <v>43699</v>
       </c>
       <c r="B131" s="2">
-        <v>0.34375</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C131" s="2">
-        <v>0.13402777777777777</v>
+        <v>0.17916666666666667</v>
       </c>
       <c r="D131" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.23055555555555554</v>
       </c>
       <c r="E131" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F131" s="2">
-        <v>0.95555555555555549</v>
+        <v>0.88541666666666674</v>
       </c>
       <c r="G131" s="2">
-        <v>0.30069444444444443</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H131" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43716</v>
+        <v>43700</v>
       </c>
       <c r="B132" s="2">
-        <v>0.41111111111111115</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="C132" s="2">
-        <v>0.17430555555555557</v>
+        <v>0.15902777777777777</v>
       </c>
       <c r="D132" s="2">
-        <v>0.23680555555555557</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="E132" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F132" s="2">
-        <v>0.9423611111111112</v>
+        <v>0.96458333333333335</v>
       </c>
       <c r="G132" s="2">
-        <v>0.35347222222222219</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="H132" s="3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43717</v>
+        <v>43701</v>
       </c>
       <c r="B133" s="2">
-        <v>0.32708333333333334</v>
+        <v>0.38472222222222219</v>
       </c>
       <c r="C133" s="2">
-        <v>0.10069444444444443</v>
+        <v>0.20069444444444443</v>
       </c>
       <c r="D133" s="2">
-        <v>0.22638888888888889</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="E133" s="2">
-        <v>0</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="F133" s="2">
-        <v>0.97013888888888888</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="G133" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="H133" s="3">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43718</v>
+        <v>43702</v>
       </c>
       <c r="B134" s="2">
-        <v>0.3666666666666667</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C134" s="2">
-        <v>0.16111111111111112</v>
+        <v>0.11875000000000001</v>
       </c>
       <c r="D134" s="2">
-        <v>0.20555555555555557</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E134" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F134" s="2">
-        <v>0.94027777777777777</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="G134" s="2">
-        <v>0.30833333333333335</v>
+        <v>0.29583333333333334</v>
       </c>
       <c r="H134" s="3">
         <v>90</v>
@@ -4374,155 +4374,155 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43719</v>
+        <v>43703</v>
       </c>
       <c r="B135" s="2">
-        <v>0.39652777777777781</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="C135" s="2">
-        <v>0.11666666666666665</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="D135" s="2">
-        <v>0.27986111111111112</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="E135" s="2">
-        <v>1.1805555555555555E-2</v>
+        <v>0</v>
       </c>
       <c r="F135" s="2">
-        <v>0.90347222222222223</v>
+        <v>2.4305555555555556E-2</v>
       </c>
       <c r="G135" s="2">
-        <v>0.31180555555555556</v>
+        <v>0.30277777777777776</v>
       </c>
       <c r="H135" s="3">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43720</v>
+        <v>43704</v>
       </c>
       <c r="B136" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.33958333333333335</v>
       </c>
       <c r="C136" s="2">
-        <v>0.12430555555555556</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D136" s="2">
-        <v>0.24791666666666667</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="E136" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="F136" s="2">
-        <v>0.91388888888888897</v>
+        <v>0.92430555555555549</v>
       </c>
       <c r="G136" s="2">
-        <v>0.29305555555555557</v>
+        <v>0.27430555555555552</v>
       </c>
       <c r="H136" s="3">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43721</v>
+        <v>43705</v>
       </c>
       <c r="B137" s="2">
-        <v>0.31111111111111112</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="C137" s="2">
-        <v>0.15486111111111112</v>
+        <v>0.11944444444444445</v>
       </c>
       <c r="D137" s="2">
-        <v>0.15625</v>
+        <v>0.21597222222222223</v>
       </c>
       <c r="E137" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F137" s="2">
-        <v>0.99097222222222214</v>
+        <v>0.96527777777777768</v>
       </c>
       <c r="G137" s="2">
-        <v>0.30486111111111108</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H137" s="3">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43722</v>
+        <v>43706</v>
       </c>
       <c r="B138" s="2">
-        <v>0.45069444444444445</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="C138" s="2">
-        <v>0.23819444444444446</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="D138" s="2">
-        <v>0.21249999999999999</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="E138" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="F138" s="2">
-        <v>0.89305555555555549</v>
+        <v>0.94791666666666674</v>
       </c>
       <c r="G138" s="2">
-        <v>0.34513888888888888</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="H138" s="3">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43723</v>
+        <v>43707</v>
       </c>
       <c r="B139" s="2">
-        <v>0.40763888888888888</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C139" s="2">
-        <v>0.14375000000000002</v>
+        <v>0.12916666666666668</v>
       </c>
       <c r="D139" s="2">
-        <v>0.2638888888888889</v>
+        <v>0.23194444444444443</v>
       </c>
       <c r="E139" s="2">
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F139" s="2">
-        <v>0.94791666666666674</v>
+        <v>0.92291666666666661</v>
       </c>
       <c r="G139" s="2">
-        <v>0.35555555555555557</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H139" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43724</v>
+        <v>43708</v>
       </c>
       <c r="B140" s="2">
-        <v>0.28888888888888892</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="C140" s="2">
-        <v>0.18958333333333333</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="D140" s="2">
-        <v>9.930555555555555E-2</v>
+        <v>0.18819444444444444</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
       </c>
       <c r="F140" s="2">
-        <v>2.361111111111111E-2</v>
+        <v>0.91736111111111107</v>
       </c>
       <c r="G140" s="2">
-        <v>0.3125</v>
+        <v>0.34861111111111115</v>
       </c>
       <c r="H140" s="3">
         <v>87</v>
@@ -4530,129 +4530,129 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43725</v>
+        <v>43709</v>
       </c>
       <c r="B141" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="C141" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="D141" s="2">
-        <v>0.25138888888888888</v>
+        <v>0.19722222222222222</v>
       </c>
       <c r="E141" s="2">
-        <v>0</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="F141" s="2">
-        <v>0.9375</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G141" s="2">
-        <v>0.31597222222222221</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="H141" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43726</v>
+        <v>43710</v>
       </c>
       <c r="B142" s="2">
-        <v>0.41111111111111115</v>
+        <v>0.37013888888888885</v>
       </c>
       <c r="C142" s="2">
-        <v>0.12013888888888889</v>
+        <v>0.19722222222222222</v>
       </c>
       <c r="D142" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.17291666666666669</v>
       </c>
       <c r="E142" s="2">
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="F142" s="2">
-        <v>0.9375</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="G142" s="2">
-        <v>0.35486111111111113</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="H142" s="3">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43727</v>
+        <v>43711</v>
       </c>
       <c r="B143" s="2">
-        <v>0.34027777777777773</v>
+        <v>0.38263888888888892</v>
       </c>
       <c r="C143" s="2">
-        <v>0.14097222222222222</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="D143" s="2">
-        <v>0.19930555555555554</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="E143" s="2">
-        <v>9.0277777777777787E-3</v>
+        <v>0</v>
       </c>
       <c r="F143" s="2">
-        <v>0.94791666666666674</v>
+        <v>0.92291666666666661</v>
       </c>
       <c r="G143" s="2">
-        <v>0.29722222222222222</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="H143" s="3">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43728</v>
+        <v>43712</v>
       </c>
       <c r="B144" s="2">
-        <v>0.31111111111111112</v>
+        <v>0.32083333333333336</v>
       </c>
       <c r="C144" s="2">
-        <v>0.12638888888888888</v>
+        <v>0.10486111111111111</v>
       </c>
       <c r="D144" s="2">
-        <v>0.18472222222222223</v>
+        <v>0.21597222222222223</v>
       </c>
       <c r="E144" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>0</v>
       </c>
       <c r="F144" s="2">
-        <v>0.98194444444444451</v>
+        <v>0.98055555555555562</v>
       </c>
       <c r="G144" s="2">
-        <v>0.3</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="H144" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43729</v>
+        <v>43713</v>
       </c>
       <c r="B145" s="2">
-        <v>0.41111111111111115</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="C145" s="2">
-        <v>0.1673611111111111</v>
+        <v>0.17430555555555557</v>
       </c>
       <c r="D145" s="2">
-        <v>0.24374999999999999</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E145" s="2">
-        <v>0</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="F145" s="2">
-        <v>0.95277777777777772</v>
+        <v>0.89652777777777781</v>
       </c>
       <c r="G145" s="2">
-        <v>0.36388888888888887</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="H145" s="3">
         <v>89</v>
@@ -4660,432 +4660,432 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43730</v>
+        <v>43714</v>
       </c>
       <c r="B146" s="2">
-        <v>0.39374999999999999</v>
+        <v>0.3659722222222222</v>
       </c>
       <c r="C146" s="2">
-        <v>0.16041666666666668</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="D146" s="2">
-        <v>0.23333333333333331</v>
+        <v>0.17152777777777775</v>
       </c>
       <c r="E146" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="F146" s="2">
-        <v>0.97013888888888888</v>
+        <v>0.89861111111111103</v>
       </c>
       <c r="G146" s="2">
-        <v>0.36527777777777781</v>
+        <v>0.26805555555555555</v>
       </c>
       <c r="H146" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43731</v>
+        <v>43715</v>
       </c>
       <c r="B147" s="2">
-        <v>0.2722222222222222</v>
+        <v>0.34375</v>
       </c>
       <c r="C147" s="2">
-        <v>9.5138888888888884E-2</v>
+        <v>0.13402777777777777</v>
       </c>
       <c r="D147" s="2">
-        <v>0.17708333333333334</v>
+        <v>0.20972222222222223</v>
       </c>
       <c r="E147" s="2">
-        <v>9.0277777777777787E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F147" s="2">
-        <v>1.5277777777777777E-2</v>
+        <v>0.95555555555555549</v>
       </c>
       <c r="G147" s="2">
-        <v>0.29652777777777778</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="H147" s="3">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43732</v>
+        <v>43716</v>
       </c>
       <c r="B148" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C148" s="2">
-        <v>0.14166666666666666</v>
+        <v>0.17430555555555557</v>
       </c>
       <c r="D148" s="2">
-        <v>0.19166666666666665</v>
+        <v>0.23680555555555557</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
       </c>
       <c r="F148" s="2">
-        <v>0.96180555555555558</v>
+        <v>0.9423611111111112</v>
       </c>
       <c r="G148" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.35347222222222219</v>
       </c>
       <c r="H148" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43733</v>
+        <v>43717</v>
       </c>
       <c r="B149" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.32708333333333334</v>
       </c>
       <c r="C149" s="2">
-        <v>7.013888888888889E-2</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="D149" s="2">
-        <v>0.27708333333333335</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
       </c>
       <c r="F149" s="2">
-        <v>0.94722222222222219</v>
+        <v>0.97013888888888888</v>
       </c>
       <c r="G149" s="2">
-        <v>0.29444444444444445</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H149" s="3">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43734</v>
+        <v>43718</v>
       </c>
       <c r="B150" s="2">
-        <v>0.32777777777777778</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C150" s="2">
-        <v>0.15</v>
+        <v>0.16111111111111112</v>
       </c>
       <c r="D150" s="2">
-        <v>0.17777777777777778</v>
+        <v>0.20555555555555557</v>
       </c>
       <c r="E150" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F150" s="2">
-        <v>0.95694444444444438</v>
+        <v>0.94027777777777777</v>
       </c>
       <c r="G150" s="2">
-        <v>0.28958333333333336</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="H150" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43735</v>
+        <v>43719</v>
       </c>
       <c r="B151" s="2">
-        <v>0.35694444444444445</v>
+        <v>0.39652777777777781</v>
       </c>
       <c r="C151" s="2">
-        <v>0.21388888888888891</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="D151" s="2">
-        <v>0.14305555555555557</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="E151" s="2">
-        <v>0</v>
+        <v>1.1805555555555555E-2</v>
       </c>
       <c r="F151" s="2">
-        <v>0.97569444444444442</v>
+        <v>0.90347222222222223</v>
       </c>
       <c r="G151" s="2">
-        <v>0.33263888888888887</v>
+        <v>0.31180555555555556</v>
       </c>
       <c r="H151" s="3">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43736</v>
+        <v>43720</v>
       </c>
       <c r="B152" s="2">
-        <v>0.34583333333333338</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C152" s="2">
-        <v>0.13819444444444443</v>
+        <v>0.12430555555555556</v>
       </c>
       <c r="D152" s="2">
-        <v>0.2076388888888889</v>
+        <v>0.24791666666666667</v>
       </c>
       <c r="E152" s="2">
-        <v>8.3333333333333332E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F152" s="2">
-        <v>3.7499999999999999E-2</v>
+        <v>0.91388888888888897</v>
       </c>
       <c r="G152" s="2">
-        <v>0.39166666666666666</v>
+        <v>0.29305555555555557</v>
       </c>
       <c r="H152" s="3">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43737</v>
+        <v>43721</v>
       </c>
       <c r="B153" s="2">
-        <v>0.30416666666666664</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="C153" s="2">
-        <v>0.10069444444444443</v>
+        <v>0.15486111111111112</v>
       </c>
       <c r="D153" s="2">
-        <v>0.20347222222222219</v>
+        <v>0.15625</v>
       </c>
       <c r="E153" s="2">
-        <v>0</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F153" s="2">
-        <v>9.8611111111111108E-2</v>
+        <v>0.99097222222222214</v>
       </c>
       <c r="G153" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.30486111111111108</v>
       </c>
       <c r="H153" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43738</v>
+        <v>43722</v>
       </c>
       <c r="B154" s="2">
-        <v>0.34583333333333338</v>
+        <v>0.45069444444444445</v>
       </c>
       <c r="C154" s="2">
-        <v>0.16458333333333333</v>
+        <v>0.23819444444444446</v>
       </c>
       <c r="D154" s="2">
-        <v>0.18124999999999999</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="E154" s="2">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F154" s="2">
-        <v>0.98194444444444451</v>
+        <v>0.89305555555555549</v>
       </c>
       <c r="G154" s="2">
-        <v>0.32777777777777778</v>
+        <v>0.34513888888888888</v>
       </c>
       <c r="H154" s="3">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43739</v>
+        <v>43723</v>
       </c>
       <c r="B155" s="2">
-        <v>0.33263888888888887</v>
+        <v>0.40763888888888888</v>
       </c>
       <c r="C155" s="2">
-        <v>0.19097222222222221</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="D155" s="2">
-        <v>0.14166666666666666</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
       </c>
       <c r="F155" s="2">
-        <v>0.99236111111111103</v>
+        <v>0.94791666666666674</v>
       </c>
       <c r="G155" s="2">
-        <v>3.2833333333333332</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="H155" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43740</v>
+        <v>43724</v>
       </c>
       <c r="B156" s="2">
-        <v>0.23680555555555557</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="C156" s="2">
-        <v>9.0972222222222218E-2</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="D156" s="2">
-        <v>0.14583333333333334</v>
+        <v>9.930555555555555E-2</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
       </c>
       <c r="F156" s="2">
-        <v>1.9444444444444445E-2</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="G156" s="2">
-        <v>0.25625000000000003</v>
+        <v>0.3125</v>
       </c>
       <c r="H156" s="3">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43741</v>
+        <v>43725</v>
       </c>
       <c r="B157" s="2">
-        <v>0.26944444444444443</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="C157" s="2">
-        <v>0.11805555555555557</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="D157" s="2">
-        <v>0.15138888888888888</v>
+        <v>0.25138888888888888</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
       </c>
       <c r="F157" s="2">
-        <v>4.3055555555555562E-2</v>
+        <v>0.9375</v>
       </c>
       <c r="G157" s="2">
-        <v>0.3125</v>
+        <v>0.31597222222222221</v>
       </c>
       <c r="H157" s="3">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43742</v>
+        <v>43726</v>
       </c>
       <c r="B158" s="2">
-        <v>0.34722222222222227</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C158" s="2">
-        <v>0.12083333333333333</v>
+        <v>0.12013888888888889</v>
       </c>
       <c r="D158" s="2">
-        <v>0.22638888888888889</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="E158" s="2">
-        <v>0</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="F158" s="2">
-        <v>0.95694444444444438</v>
+        <v>0.9375</v>
       </c>
       <c r="G158" s="2">
-        <v>0.30416666666666664</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="H158" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43743</v>
+        <v>43727</v>
       </c>
       <c r="B159" s="2">
-        <v>0.24027777777777778</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="C159" s="2">
-        <v>0.12361111111111112</v>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D159" s="2">
-        <v>0.11666666666666665</v>
+        <v>0.19930555555555554</v>
       </c>
       <c r="E159" s="2">
-        <v>0</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="F159" s="2">
-        <v>0.94375000000000009</v>
+        <v>0.94791666666666674</v>
       </c>
       <c r="G159" s="2">
-        <v>0.18402777777777779</v>
+        <v>0.29722222222222222</v>
       </c>
       <c r="H159" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43744</v>
+        <v>43728</v>
       </c>
       <c r="B160" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="C160" s="2">
-        <v>0.20625000000000002</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="D160" s="2">
-        <v>0.12708333333333333</v>
+        <v>0.18472222222222223</v>
       </c>
       <c r="E160" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="F160" s="2">
-        <v>9.5833333333333326E-2</v>
+        <v>0.98194444444444451</v>
       </c>
       <c r="G160" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.3</v>
       </c>
       <c r="H160" s="3">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43745</v>
+        <v>43729</v>
       </c>
       <c r="B161" s="2">
-        <v>0.24166666666666667</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C161" s="2">
-        <v>2.9861111111111113E-2</v>
+        <v>0.1673611111111111</v>
       </c>
       <c r="D161" s="2">
-        <v>0.21180555555555555</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
       </c>
       <c r="F161" s="2">
-        <v>4.9305555555555554E-2</v>
+        <v>0.95277777777777772</v>
       </c>
       <c r="G161" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.36388888888888887</v>
       </c>
       <c r="H161" s="3">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43746</v>
+        <v>43730</v>
       </c>
       <c r="B162" s="2">
-        <v>0.33124999999999999</v>
+        <v>0.39374999999999999</v>
       </c>
       <c r="C162" s="2">
-        <v>0.15208333333333332</v>
+        <v>0.16041666666666668</v>
       </c>
       <c r="D162" s="2">
-        <v>0.17916666666666667</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="E162" s="2">
         <v>1.3888888888888889E-3</v>
@@ -5094,215 +5094,215 @@
         <v>0.97013888888888888</v>
       </c>
       <c r="G162" s="2">
-        <v>0.30277777777777776</v>
+        <v>0.36527777777777781</v>
       </c>
       <c r="H162" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43747</v>
+        <v>43731</v>
       </c>
       <c r="B163" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="C163" s="2">
-        <v>0.19305555555555554</v>
+        <v>9.5138888888888884E-2</v>
       </c>
       <c r="D163" s="2">
-        <v>0.17916666666666667</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="E163" s="2">
-        <v>0</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="F163" s="2">
-        <v>0.91874999999999996</v>
+        <v>1.5277777777777777E-2</v>
       </c>
       <c r="G163" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.29652777777777778</v>
       </c>
       <c r="H163" s="3">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43748</v>
+        <v>43732</v>
       </c>
       <c r="B164" s="2">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C164" s="2">
-        <v>8.6111111111111124E-2</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="D164" s="2">
-        <v>0.22638888888888889</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="E164" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0</v>
       </c>
       <c r="F164" s="2">
-        <v>0.94930555555555562</v>
+        <v>0.96180555555555558</v>
       </c>
       <c r="G164" s="2">
-        <v>0.26458333333333334</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H164" s="3">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43749</v>
+        <v>43733</v>
       </c>
       <c r="B165" s="2">
-        <v>0.34097222222222223</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="C165" s="2">
-        <v>0.17083333333333331</v>
+        <v>7.013888888888889E-2</v>
       </c>
       <c r="D165" s="2">
-        <v>0.17013888888888887</v>
+        <v>0.27708333333333335</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
       </c>
       <c r="F165" s="2">
-        <v>0.95069444444444451</v>
+        <v>0.94722222222222219</v>
       </c>
       <c r="G165" s="2">
-        <v>0.29166666666666669</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="H165" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43750</v>
+        <v>43734</v>
       </c>
       <c r="B166" s="2">
-        <v>0.42777777777777781</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="C166" s="2">
-        <v>0.22013888888888888</v>
+        <v>0.15</v>
       </c>
       <c r="D166" s="2">
-        <v>0.2076388888888889</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="E166" s="2">
-        <v>0</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="F166" s="2">
-        <v>0.91805555555555562</v>
+        <v>0.95694444444444438</v>
       </c>
       <c r="G166" s="2">
-        <v>0.34583333333333338</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="H166" s="3">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43751</v>
+        <v>43735</v>
       </c>
       <c r="B167" s="2">
-        <v>0.33888888888888885</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="C167" s="2">
-        <v>0.14097222222222222</v>
+        <v>0.21388888888888891</v>
       </c>
       <c r="D167" s="2">
-        <v>0.19791666666666666</v>
+        <v>0.14305555555555557</v>
       </c>
       <c r="E167" s="2">
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
       <c r="F167" s="2">
-        <v>0.96666666666666656</v>
+        <v>0.97569444444444442</v>
       </c>
       <c r="G167" s="2">
-        <v>0.30972222222222223</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="H167" s="3">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43752</v>
+        <v>43736</v>
       </c>
       <c r="B168" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="C168" s="2">
-        <v>0.1875</v>
+        <v>0.13819444444444443</v>
       </c>
       <c r="D168" s="2">
-        <v>0.23263888888888887</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="E168" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F168" s="2">
-        <v>0.87361111111111112</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G168" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="H168" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43753</v>
+        <v>43737</v>
       </c>
       <c r="B169" s="2">
-        <v>0.36805555555555558</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="C169" s="2">
-        <v>0.19444444444444445</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="D169" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.20347222222222219</v>
       </c>
       <c r="E169" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0</v>
       </c>
       <c r="F169" s="2">
-        <v>0.92986111111111103</v>
+        <v>9.8611111111111108E-2</v>
       </c>
       <c r="G169" s="2">
-        <v>0.30069444444444443</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="H169" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43754</v>
+        <v>43738</v>
       </c>
       <c r="B170" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="C170" s="2">
-        <v>0.17361111111111113</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="D170" s="2">
-        <v>0.1875</v>
+        <v>0.18124999999999999</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
       </c>
       <c r="F170" s="2">
-        <v>0.9375</v>
+        <v>0.98194444444444451</v>
       </c>
       <c r="G170" s="2">
-        <v>0.2986111111111111</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="H170" s="3">
         <v>91</v>
@@ -5310,259 +5310,259 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43755</v>
+        <v>43739</v>
       </c>
       <c r="B171" s="2">
-        <v>0.29097222222222224</v>
+        <v>0.33263888888888887</v>
       </c>
       <c r="C171" s="2">
-        <v>8.9583333333333334E-2</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="D171" s="2">
-        <v>0.20138888888888887</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="E171" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F171" s="2">
-        <v>0.98750000000000004</v>
+        <v>0.99236111111111103</v>
       </c>
       <c r="G171" s="2">
-        <v>0.27986111111111112</v>
+        <v>3.2833333333333332</v>
       </c>
       <c r="H171" s="3">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43756</v>
+        <v>43740</v>
       </c>
       <c r="B172" s="2">
-        <v>0.38750000000000001</v>
+        <v>0.23680555555555557</v>
       </c>
       <c r="C172" s="2">
-        <v>0.22430555555555556</v>
+        <v>9.0972222222222218E-2</v>
       </c>
       <c r="D172" s="2">
-        <v>0.16319444444444445</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E172" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F172" s="2">
-        <v>0.91250000000000009</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="G172" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.25625000000000003</v>
       </c>
       <c r="H172" s="3">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43757</v>
+        <v>43741</v>
       </c>
       <c r="B173" s="2">
-        <v>0.34791666666666665</v>
+        <v>0.26944444444444443</v>
       </c>
       <c r="C173" s="2">
-        <v>8.6805555555555566E-2</v>
+        <v>0.11805555555555557</v>
       </c>
       <c r="D173" s="2">
-        <v>0.26111111111111113</v>
+        <v>0.15138888888888888</v>
       </c>
       <c r="E173" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="F173" s="2">
-        <v>0.93680555555555545</v>
+        <v>4.3055555555555562E-2</v>
       </c>
       <c r="G173" s="2">
-        <v>0.28819444444444448</v>
+        <v>0.3125</v>
       </c>
       <c r="H173" s="3">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43758</v>
+        <v>43742</v>
       </c>
       <c r="B174" s="2">
-        <v>0.45555555555555555</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="C174" s="2">
-        <v>0.13472222222222222</v>
+        <v>0.12083333333333333</v>
       </c>
       <c r="D174" s="2">
-        <v>0.32083333333333336</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E174" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F174" s="2">
-        <v>0.85694444444444451</v>
+        <v>0.95694444444444438</v>
       </c>
       <c r="G174" s="2">
-        <v>0.31388888888888888</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="H174" s="3">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43759</v>
+        <v>43743</v>
       </c>
       <c r="B175" s="2">
-        <v>0.37222222222222223</v>
+        <v>0.24027777777777778</v>
       </c>
       <c r="C175" s="2">
-        <v>0.14722222222222223</v>
+        <v>0.12361111111111112</v>
       </c>
       <c r="D175" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.11666666666666665</v>
       </c>
       <c r="E175" s="2">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="F175" s="2">
-        <v>0.91874999999999996</v>
+        <v>0.94375000000000009</v>
       </c>
       <c r="G175" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="H175" s="3">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43760</v>
+        <v>43744</v>
       </c>
       <c r="B176" s="2">
-        <v>0.37777777777777777</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C176" s="2">
-        <v>0.1173611111111111</v>
+        <v>0.20625000000000002</v>
       </c>
       <c r="D176" s="2">
-        <v>0.26041666666666669</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="E176" s="2">
-        <v>3.472222222222222E-3</v>
+        <v>4.8611111111111112E-3</v>
       </c>
       <c r="F176" s="2">
-        <v>0.90694444444444455</v>
+        <v>9.5833333333333326E-2</v>
       </c>
       <c r="G176" s="2">
-        <v>0.28819444444444448</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="H176" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43761</v>
+        <v>43745</v>
       </c>
       <c r="B177" s="2">
-        <v>0.38055555555555554</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="C177" s="2">
-        <v>0.20833333333333334</v>
+        <v>2.9861111111111113E-2</v>
       </c>
       <c r="D177" s="2">
-        <v>0.17222222222222225</v>
+        <v>0.21180555555555555</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
       </c>
       <c r="F177" s="2">
-        <v>0.90416666666666656</v>
+        <v>4.9305555555555554E-2</v>
       </c>
       <c r="G177" s="2">
-        <v>0.28472222222222221</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H177" s="3">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43762</v>
+        <v>43746</v>
       </c>
       <c r="B178" s="2">
-        <v>0.30138888888888887</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="C178" s="2">
-        <v>0.11805555555555557</v>
+        <v>0.15208333333333332</v>
       </c>
       <c r="D178" s="2">
-        <v>0.18333333333333335</v>
+        <v>0.17916666666666667</v>
       </c>
       <c r="E178" s="2">
-        <v>4.8611111111111112E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="F178" s="2">
-        <v>0</v>
+        <v>0.97013888888888888</v>
       </c>
       <c r="G178" s="2">
-        <v>0.30624999999999997</v>
+        <v>0.30277777777777776</v>
       </c>
       <c r="H178" s="3">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43763</v>
+        <v>43747</v>
       </c>
       <c r="B179" s="2">
-        <v>0.4069444444444445</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="C179" s="2">
-        <v>0.19722222222222222</v>
+        <v>0.19305555555555554</v>
       </c>
       <c r="D179" s="2">
-        <v>0.20972222222222223</v>
+        <v>0.17916666666666667</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
       </c>
       <c r="F179" s="2">
-        <v>0.88819444444444451</v>
+        <v>0.91874999999999996</v>
       </c>
       <c r="G179" s="2">
-        <v>0.2951388888888889</v>
+        <v>0.29097222222222224</v>
       </c>
       <c r="H179" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43764</v>
+        <v>43748</v>
       </c>
       <c r="B180" s="2">
-        <v>0.41944444444444445</v>
+        <v>0.3125</v>
       </c>
       <c r="C180" s="2">
-        <v>0.19097222222222221</v>
+        <v>8.6111111111111124E-2</v>
       </c>
       <c r="D180" s="2">
-        <v>0.22847222222222222</v>
+        <v>0.22638888888888889</v>
       </c>
       <c r="E180" s="2">
-        <v>0</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F180" s="2">
-        <v>0.92430555555555549</v>
+        <v>0.94930555555555562</v>
       </c>
       <c r="G180" s="2">
-        <v>0.34375</v>
+        <v>0.26458333333333334</v>
       </c>
       <c r="H180" s="3">
         <v>84</v>
@@ -5570,158 +5570,3356 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43765</v>
+        <v>43749</v>
       </c>
       <c r="B181" s="2">
-        <v>0.33055555555555555</v>
+        <v>0.34097222222222223</v>
       </c>
       <c r="C181" s="2">
-        <v>0.1277777777777778</v>
+        <v>0.17083333333333331</v>
       </c>
       <c r="D181" s="2">
-        <v>0.20277777777777781</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="E181" s="2">
-        <v>2.0833333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="F181" s="2">
-        <v>0.95416666666666661</v>
+        <v>0.95069444444444451</v>
       </c>
       <c r="G181" s="2">
-        <v>0.24513888888888888</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H181" s="3">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43766</v>
+        <v>43750</v>
       </c>
       <c r="B182" s="2">
-        <v>0.37638888888888888</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="C182" s="2">
-        <v>0.10833333333333334</v>
+        <v>0.22013888888888888</v>
       </c>
       <c r="D182" s="2">
-        <v>0.26805555555555555</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="E182" s="2">
-        <v>2.7777777777777779E-3</v>
+        <v>0</v>
       </c>
       <c r="F182" s="2">
-        <v>0.91319444444444442</v>
+        <v>0.91805555555555562</v>
       </c>
       <c r="G182" s="2">
-        <v>0.29236111111111113</v>
+        <v>0.34583333333333338</v>
       </c>
       <c r="H182" s="3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43767</v>
+        <v>43751</v>
       </c>
       <c r="B183" s="2">
-        <v>0.36319444444444443</v>
+        <v>0.33888888888888885</v>
       </c>
       <c r="C183" s="2">
-        <v>0.14722222222222223</v>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D183" s="2">
-        <v>0.21597222222222223</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="E183" s="2">
-        <v>0</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="F183" s="2">
-        <v>0.90486111111111112</v>
+        <v>0.96666666666666656</v>
       </c>
       <c r="G183" s="2">
-        <v>0.26805555555555555</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="H183" s="3">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43768</v>
+        <v>43752</v>
       </c>
       <c r="B184" s="2">
-        <v>0.39444444444444443</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="C184" s="2">
-        <v>8.819444444444445E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="D184" s="2">
-        <v>0.30624999999999997</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="E184" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="F184" s="2">
-        <v>0.88472222222222219</v>
+        <v>0.87361111111111112</v>
       </c>
       <c r="G184" s="2">
-        <v>0.28055555555555556</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="H184" s="3">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43769</v>
+        <v>43753</v>
       </c>
       <c r="B185" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C185" s="2">
-        <v>0.17152777777777775</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="D185" s="2">
-        <v>0.23402777777777781</v>
+        <v>0.17361111111111113</v>
       </c>
       <c r="E185" s="2">
-        <v>0</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="F185" s="2">
-        <v>0.87569444444444455</v>
+        <v>0.92986111111111103</v>
       </c>
       <c r="G185" s="2">
-        <v>0.28125</v>
+        <v>0.30069444444444443</v>
       </c>
       <c r="H185" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="E186" s="2">
+        <v>0</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H186" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.29097222222222224</v>
+      </c>
+      <c r="C187" s="2">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E187" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="H187" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.22430555555555556</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="E188" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.91250000000000009</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="H188" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C189" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E189" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.93680555555555545</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H189" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="E190" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F190" s="2">
+        <v>0.85694444444444451</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="H190" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F191" s="2">
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="H191" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.1173611111111111</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E192" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0.90694444444444455</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H192" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.38055555555555554</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="E193" s="2">
+        <v>0</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0.90416666666666656</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H193" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="E194" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="H194" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="E195" s="2">
+        <v>0</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0.88819444444444451</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="H195" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>43764</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.22847222222222222</v>
+      </c>
+      <c r="E196" s="2">
+        <v>0</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0.92430555555555549</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H196" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.33055555555555555</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.20277777777777781</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0.95416666666666661</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="H197" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F198" s="2">
+        <v>0.91319444444444442</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0.29236111111111113</v>
+      </c>
+      <c r="H198" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.21597222222222223</v>
+      </c>
+      <c r="E199" s="2">
+        <v>0</v>
+      </c>
+      <c r="F199" s="2">
+        <v>0.90486111111111112</v>
+      </c>
+      <c r="G199" s="2">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="H199" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43768</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="C200" s="2">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0.88472222222222219</v>
+      </c>
+      <c r="G200" s="2">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="H200" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.23402777777777781</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0.87569444444444455</v>
+      </c>
+      <c r="G201" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="H201" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>43770</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B202" s="2">
         <v>0.43263888888888885</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C202" s="2">
         <v>0.17013888888888887</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D202" s="2">
         <v>0.26250000000000001</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E202" s="2">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F202" s="2">
         <v>0.88958333333333339</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G202" s="2">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H186" s="3">
+      <c r="H202" s="3">
         <v>76</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="E203" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F203" s="2">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="H203" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E204" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="G204" s="2">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="H204" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0</v>
+      </c>
+      <c r="F205" s="2">
+        <v>0.92986111111111114</v>
+      </c>
+      <c r="G205" s="2">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="H205" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E206" s="2">
+        <v>0</v>
+      </c>
+      <c r="F206" s="2">
+        <v>0.89166666666666661</v>
+      </c>
+      <c r="G206" s="2">
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="H206" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.18472222222222223</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F207" s="2">
+        <v>0.89027777777777783</v>
+      </c>
+      <c r="G207" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="H207" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.10208333333333335</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0</v>
+      </c>
+      <c r="F208" s="2">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="G208" s="2">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="H208" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B209" s="2">
+        <v>0.32430555555555557</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="E209" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="G209" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H209" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.17152777777777775</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0</v>
+      </c>
+      <c r="F210" s="2">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H210" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="E211" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="F211" s="2">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="G211" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="H211" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B212" s="2">
+        <v>0.42222222222222222</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="E212" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F212" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="G212" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H212" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="E213" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F213" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="G213" s="2">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="H213" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B214" s="2">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="E214" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G214" s="2">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="H214" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C215" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="E215" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="H215" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="C216" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="G216" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="H216" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="E217" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="H217" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B218" s="2">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E218" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0.98125000000000007</v>
+      </c>
+      <c r="G218" s="2">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="H218" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="C219" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="E219" s="2">
+        <v>0</v>
+      </c>
+      <c r="F219" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="G219" s="2">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="H219" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="E220" s="2">
+        <v>0</v>
+      </c>
+      <c r="F220" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G220" s="2">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="H220" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B221" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0.92847222222222225</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H221" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B222" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.21736111111111112</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="H222" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B223" s="2">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.20347222222222219</v>
+      </c>
+      <c r="E223" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0.94166666666666676</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="H223" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E224" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.9770833333333333</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="H224" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0.30624999999999997</v>
+      </c>
+      <c r="C225" s="2">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="E225" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H225" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B226" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="D226" s="2">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="E226" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G226" s="2">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="H226" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C227" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="E227" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.97430555555555554</v>
+      </c>
+      <c r="G227" s="2">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="H227" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B228" s="2">
+        <v>0.35694444444444445</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="D228" s="2">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="E228" s="2">
+        <v>0</v>
+      </c>
+      <c r="F228" s="2">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="G228" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H228" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.22291666666666665</v>
+      </c>
+      <c r="E229" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="H229" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="G230" s="2">
+        <v>0.30694444444444441</v>
+      </c>
+      <c r="H230" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.40069444444444446</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E231" s="2">
+        <v>0</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="G231" s="2">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="H231" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B232" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="E232" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F232" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="G232" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="H232" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.22638888888888889</v>
+      </c>
+      <c r="E233" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0.93263888888888891</v>
+      </c>
+      <c r="G233" s="2">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="H233" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.14791666666666667</v>
+      </c>
+      <c r="E234" s="2">
+        <v>0</v>
+      </c>
+      <c r="F234" s="2">
+        <v>0.92083333333333339</v>
+      </c>
+      <c r="G234" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H234" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="D235" s="2">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="E235" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="G235" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H235" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B236" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="D236" s="2">
+        <v>0.21875</v>
+      </c>
+      <c r="E236" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F236" s="2">
+        <v>0.91736111111111107</v>
+      </c>
+      <c r="G236" s="2">
+        <v>0.27847222222222223</v>
+      </c>
+      <c r="H236" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="E237" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F237" s="2">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="G237" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H237" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0.39652777777777781</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E238" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F238" s="2">
+        <v>0.92638888888888893</v>
+      </c>
+      <c r="G238" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H238" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B239" s="2">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="C239" s="2">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="E239" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="F239" s="2">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="G239" s="2">
+        <v>0.26319444444444445</v>
+      </c>
+      <c r="H239" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B240" s="2">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.12083333333333333</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="E240" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F240" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="G240" s="2">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="H240" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B241" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.20208333333333331</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E241" s="2">
+        <v>0</v>
+      </c>
+      <c r="F241" s="2">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="G241" s="2">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="H241" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B242" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.13819444444444443</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0.25763888888888892</v>
+      </c>
+      <c r="E242" s="2">
+        <v>0</v>
+      </c>
+      <c r="F242" s="2">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="G242" s="2">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="H242" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43811</v>
+      </c>
+      <c r="B243" s="2">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="E243" s="2">
+        <v>0</v>
+      </c>
+      <c r="F243" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="G243" s="2">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="H243" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43812</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="E244" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F244" s="2">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="G244" s="2">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="H244" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43813</v>
+      </c>
+      <c r="B245" s="2">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="C245" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="D245" s="2">
+        <v>0.33958333333333335</v>
+      </c>
+      <c r="E245" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="F245" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G245" s="2">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="H245" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43814</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="E246" s="2">
+        <v>0</v>
+      </c>
+      <c r="F246" s="2">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="G246" s="2">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="H246" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C247" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="E247" s="2">
+        <v>0</v>
+      </c>
+      <c r="F247" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G247" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="H247" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="E248" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F248" s="2">
+        <v>0.91041666666666676</v>
+      </c>
+      <c r="G248" s="2">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="H248" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43817</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.33194444444444443</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.17222222222222225</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E249" s="2">
+        <v>0</v>
+      </c>
+      <c r="F249" s="2">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="G249" s="2">
+        <v>0.25625000000000003</v>
+      </c>
+      <c r="H249" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43818</v>
+      </c>
+      <c r="B250" s="2">
+        <v>0.31041666666666667</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E250" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F250" s="2">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="G250" s="2">
+        <v>0.24791666666666667</v>
+      </c>
+      <c r="H250" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43819</v>
+      </c>
+      <c r="B251" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C251" s="2">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="E251" s="2">
+        <v>0</v>
+      </c>
+      <c r="F251" s="2">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="G251" s="2">
+        <v>0.28402777777777777</v>
+      </c>
+      <c r="H251" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B252" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="E252" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="F252" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G252" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="H252" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43821</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="D253" s="2">
+        <v>0.28263888888888888</v>
+      </c>
+      <c r="E253" s="2">
+        <v>0</v>
+      </c>
+      <c r="F253" s="2">
+        <v>0.97986111111111107</v>
+      </c>
+      <c r="G253" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="H253" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43822</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E254" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="F254" s="2">
+        <v>0.93472222222222223</v>
+      </c>
+      <c r="G254" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="H254" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="E255" s="2">
+        <v>0</v>
+      </c>
+      <c r="F255" s="2">
+        <v>0.8965277777777777</v>
+      </c>
+      <c r="G255" s="2">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="H255" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C256" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="E256" s="2">
+        <v>0</v>
+      </c>
+      <c r="F256" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="G256" s="2">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="H256" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="E257" s="2">
+        <v>0</v>
+      </c>
+      <c r="F257" s="2">
+        <v>0.99583333333333324</v>
+      </c>
+      <c r="G257" s="2">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="H257" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.31736111111111115</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E258" s="2">
+        <v>0</v>
+      </c>
+      <c r="F258" s="2">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="G258" s="2">
+        <v>0.30972222222222223</v>
+      </c>
+      <c r="H258" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="D259" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="E259" s="2">
+        <v>0</v>
+      </c>
+      <c r="F259" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="G259" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="H259" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="C260" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="E260" s="2">
+        <v>0</v>
+      </c>
+      <c r="F260" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G260" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="H260" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="E261" s="2">
+        <v>0</v>
+      </c>
+      <c r="F261" s="2">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="G261" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H261" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0.16111111111111112</v>
+      </c>
+      <c r="D262" s="2">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E262" s="2">
+        <v>0</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="G262" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H262" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="E263" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F263" s="2">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="G263" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="H263" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0.16388888888888889</v>
+      </c>
+      <c r="E264" s="2">
+        <v>0</v>
+      </c>
+      <c r="F264" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="G264" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H264" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0.1451388888888889</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="E265" s="2">
+        <v>0</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0.91805555555555562</v>
+      </c>
+      <c r="G265" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H265" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="C266" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="E266" s="2">
+        <v>0</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G266" s="2">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="H266" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>43835</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.29930555555555555</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="D267" s="2">
+        <v>0.18611111111111112</v>
+      </c>
+      <c r="E267" s="2">
+        <v>0</v>
+      </c>
+      <c r="F267" s="2">
+        <v>0.96111111111111114</v>
+      </c>
+      <c r="G267" s="2">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="H267" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="E268" s="2">
+        <v>0</v>
+      </c>
+      <c r="F268" s="2">
+        <v>0.88402777777777775</v>
+      </c>
+      <c r="G268" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H268" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>43837</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="D269" s="2">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E269" s="2">
+        <v>0</v>
+      </c>
+      <c r="F269" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="G269" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="H269" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="E270" s="2">
+        <v>0</v>
+      </c>
+      <c r="F270" s="2">
+        <v>0.91180555555555554</v>
+      </c>
+      <c r="G270" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H270" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="E271" s="2">
+        <v>0</v>
+      </c>
+      <c r="F271" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="G271" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="H271" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="C272" s="2">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="D272" s="2">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="E272" s="2">
+        <v>0</v>
+      </c>
+      <c r="F272" s="2">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="G272" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H272" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>43841</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.44861111111111113</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="D273" s="2">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="E273" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F273" s="2">
+        <v>0.9277777777777777</v>
+      </c>
+      <c r="G273" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="H273" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="E274" s="2">
+        <v>0</v>
+      </c>
+      <c r="F274" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="G274" s="2">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="H274" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B275" s="2">
+        <v>0.32361111111111113</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="E275" s="2">
+        <v>0</v>
+      </c>
+      <c r="F275" s="2">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="H275" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0.33819444444444446</v>
+      </c>
+      <c r="C276" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="D276" s="2">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="E276" s="2">
+        <v>0</v>
+      </c>
+      <c r="F276" s="2">
+        <v>0.96458333333333324</v>
+      </c>
+      <c r="G276" s="2">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="H276" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>43845</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.30486111111111108</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="E277" s="2">
+        <v>0</v>
+      </c>
+      <c r="F277" s="2">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H277" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.16041666666666668</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="E278" s="2">
+        <v>0</v>
+      </c>
+      <c r="F278" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="G278" s="2">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="H278" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>43847</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E279" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="F279" s="2">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="G279" s="2">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="H279" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.19652777777777777</v>
+      </c>
+      <c r="D280" s="2">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="E280" s="2">
+        <v>0</v>
+      </c>
+      <c r="F280" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="G280" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="H280" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0.15902777777777777</v>
+      </c>
+      <c r="D281" s="2">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="E281" s="2">
+        <v>0</v>
+      </c>
+      <c r="F281" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="H281" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B282" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C282" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="D282" s="2">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="E282" s="2">
+        <v>0</v>
+      </c>
+      <c r="F282" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0.31319444444444444</v>
+      </c>
+      <c r="H282" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0.41597222222222219</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0.17569444444444446</v>
+      </c>
+      <c r="D283" s="2">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="E283" s="2">
+        <v>0</v>
+      </c>
+      <c r="F283" s="2">
+        <v>0.88958333333333339</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H283" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="C284" s="2">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="D284" s="2">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="E284" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F284" s="2">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="H284" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B285" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0</v>
+      </c>
+      <c r="F285" s="2">
+        <v>0.90208333333333324</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="H285" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B286" s="2">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.12013888888888889</v>
+      </c>
+      <c r="D286" s="2">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="E286" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F286" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="H286" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C287" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="D287" s="2">
+        <v>0.25277777777777777</v>
+      </c>
+      <c r="E287" s="2">
+        <v>0</v>
+      </c>
+      <c r="F287" s="2">
+        <v>0.94513888888888886</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="H287" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B288" s="2">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0.17083333333333331</v>
+      </c>
+      <c r="D288" s="2">
+        <v>0.24097222222222223</v>
+      </c>
+      <c r="E288" s="2">
+        <v>0</v>
+      </c>
+      <c r="F288" s="2">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="H288" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C289" s="2">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="D289" s="2">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="E289" s="2">
+        <v>0</v>
+      </c>
+      <c r="F289" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="H289" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43858</v>
+      </c>
+      <c r="B290" s="2">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="D290" s="2">
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="E290" s="2">
+        <v>0</v>
+      </c>
+      <c r="F290" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="H290" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B291" s="2">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="C291" s="2">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="D291" s="2">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="E291" s="2">
+        <v>0</v>
+      </c>
+      <c r="F291" s="2">
+        <v>0.98333333333333339</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0.3430555555555555</v>
+      </c>
+      <c r="H291" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="D292" s="2">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="E292" s="2">
+        <v>0</v>
+      </c>
+      <c r="F292" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="H292" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="C293" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="D293" s="2">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="E293" s="2">
+        <v>0</v>
+      </c>
+      <c r="F293" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="H293" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="D294" s="2">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="E294" s="2">
+        <v>0</v>
+      </c>
+      <c r="F294" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="H294" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0.18819444444444444</v>
+      </c>
+      <c r="D295" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="E295" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F295" s="2">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="H295" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="C296" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D296" s="2">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="E296" s="2">
+        <v>0</v>
+      </c>
+      <c r="F296" s="2">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="H296" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="D297" s="2">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E297" s="2">
+        <v>0</v>
+      </c>
+      <c r="F297" s="2">
+        <v>0.95347222222222217</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0.29444444444444445</v>
+      </c>
+      <c r="H297" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.2902777777777778</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="D298" s="2">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="E298" s="2">
+        <v>0</v>
+      </c>
+      <c r="F298" s="2">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="H298" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.33749999999999997</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="D299" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E299" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F299" s="2">
+        <v>0.95277777777777783</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H299" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0.32847222222222222</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="D300" s="2">
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="E300" s="2">
+        <v>0</v>
+      </c>
+      <c r="F300" s="2">
+        <v>0.9604166666666667</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="H300" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="D301" s="2">
+        <v>0.22013888888888888</v>
+      </c>
+      <c r="E301" s="2">
+        <v>0</v>
+      </c>
+      <c r="F301" s="2">
+        <v>0.97083333333333333</v>
+      </c>
+      <c r="G301" s="2">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="H301" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B302" s="2">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="D302" s="2">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="F302" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="H302" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B303" s="2">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="D303" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F303" s="2">
+        <v>0.95763888888888893</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0.26180555555555557</v>
+      </c>
+      <c r="H303" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B304" s="2">
+        <v>0.31597222222222221</v>
+      </c>
+      <c r="C304" s="2">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="D304" s="2">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="E304" s="2">
+        <v>0</v>
+      </c>
+      <c r="F304" s="2">
+        <v>0.9604166666666667</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0.27638888888888885</v>
+      </c>
+      <c r="H304" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B305" s="2">
+        <v>0.29652777777777778</v>
+      </c>
+      <c r="C305" s="2">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="D305" s="2">
+        <v>0.18680555555555556</v>
+      </c>
+      <c r="E305" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F305" s="2">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H305" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B306" s="2">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="C306" s="2">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="D306" s="2">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="E306" s="2">
+        <v>0</v>
+      </c>
+      <c r="F306" s="2">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="G306" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="H306" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B307" s="2">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="C307" s="2">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="D307" s="2">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="E307" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="F307" s="2">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="G307" s="2">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="H307" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B308" s="2">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="D308" s="2">
+        <v>0.17291666666666669</v>
+      </c>
+      <c r="E308" s="2">
+        <v>0</v>
+      </c>
+      <c r="F308" s="2">
+        <v>0.9506944444444444</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0.26527777777777778</v>
+      </c>
+      <c r="H308" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B309" s="2">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="D309" s="2">
+        <v>0.23680555555555557</v>
+      </c>
+      <c r="E309" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="F309" s="2">
+        <v>0.90416666666666667</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0.3527777777777778</v>
+      </c>
+      <c r="H309" s="3">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
